--- a/03_Materials/finalize_stimuli/fi/fi_translate_TS2022_04_29.xlsx
+++ b/03_Materials/finalize_stimuli/fi/fi_translate_TS2022_04_29.xlsx
@@ -1,26 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SPAM-L\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erinbuchanan/GitHub/Research/2_projects/SPAML/SPAML-PSA/03_Materials/finalize_stimuli/fi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC8D756-7170-400E-BB1A-100CDC0E69D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44539D9C-4A46-2B40-9376-9B21B6F5EC79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fi_translate" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">fi_translate!$A$1:$S$1001</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7303" uniqueCount="6976">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7309" uniqueCount="6980">
   <si>
     <t>fi_cue</t>
   </si>
@@ -20948,6 +20964,18 @@
   </si>
   <si>
     <t>This one I might drop: both count and calculate best translate to "laskea", but here I have kept the automatical translation of count, which is more along the lines of the count in "count Dracula".</t>
+  </si>
+  <si>
+    <t>anteeksi</t>
+  </si>
+  <si>
+    <t>kiinni</t>
+  </si>
+  <si>
+    <t>maailtäminen</t>
+  </si>
+  <si>
+    <t>vanda</t>
   </si>
 </sst>
 </file>
@@ -21001,15 +21029,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normaali" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -21227,24 +21255,24 @@
   </sheetPr>
   <dimension ref="A1:K1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A312" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K320" sqref="K320"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P55" sqref="P55:P66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="3"/>
-    <col min="3" max="3" width="12.5703125" style="3"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" customWidth="1"/>
-    <col min="7" max="7" width="29.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.5" style="3"/>
+    <col min="3" max="3" width="12.5" style="3"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.1640625" customWidth="1"/>
+    <col min="7" max="7" width="29.1640625" customWidth="1"/>
     <col min="8" max="8" width="27" customWidth="1"/>
-    <col min="9" max="10" width="12.5703125" style="5"/>
-    <col min="11" max="11" width="24.42578125" customWidth="1"/>
+    <col min="9" max="10" width="12.5" style="5"/>
+    <col min="11" max="11" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -21279,7 +21307,7 @@
         <v>6936</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -21303,7 +21331,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -21329,7 +21357,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -21355,7 +21383,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
@@ -21379,7 +21407,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>30</v>
       </c>
@@ -21403,7 +21431,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
@@ -21429,7 +21457,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>42</v>
       </c>
@@ -21455,7 +21483,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>46</v>
       </c>
@@ -21479,7 +21507,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>52</v>
       </c>
@@ -21503,7 +21531,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>58</v>
       </c>
@@ -21529,7 +21557,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>64</v>
       </c>
@@ -21555,7 +21583,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>70</v>
       </c>
@@ -21581,7 +21609,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>76</v>
       </c>
@@ -21605,7 +21633,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>82</v>
       </c>
@@ -21633,7 +21661,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>88</v>
       </c>
@@ -21661,7 +21689,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>94</v>
       </c>
@@ -21687,7 +21715,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>100</v>
       </c>
@@ -21711,7 +21739,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>106</v>
       </c>
@@ -21737,7 +21765,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>112</v>
       </c>
@@ -21761,7 +21789,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>118</v>
       </c>
@@ -21787,7 +21815,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>124</v>
       </c>
@@ -21811,7 +21839,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>130</v>
       </c>
@@ -21839,7 +21867,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>136</v>
       </c>
@@ -21865,7 +21893,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>142</v>
       </c>
@@ -21893,7 +21921,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>148</v>
       </c>
@@ -21919,7 +21947,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>154</v>
       </c>
@@ -21947,7 +21975,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>160</v>
       </c>
@@ -21975,7 +22003,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>165</v>
       </c>
@@ -21999,7 +22027,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>171</v>
       </c>
@@ -22023,7 +22051,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>177</v>
       </c>
@@ -22049,7 +22077,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>183</v>
       </c>
@@ -22073,7 +22101,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>189</v>
       </c>
@@ -22101,7 +22129,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>195</v>
       </c>
@@ -22125,7 +22153,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
         <v>201</v>
       </c>
@@ -22149,7 +22177,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>207</v>
       </c>
@@ -22175,7 +22203,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>213</v>
       </c>
@@ -22203,11 +22231,13 @@
         <v>218</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
+    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>6976</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>5749</v>
       </c>
-      <c r="B38" s="1"/>
       <c r="C38" s="2" t="s">
         <v>219</v>
       </c>
@@ -22231,7 +22261,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
         <v>224</v>
       </c>
@@ -22255,7 +22285,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
         <v>230</v>
       </c>
@@ -22283,7 +22313,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
         <v>235</v>
       </c>
@@ -22309,7 +22339,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
         <v>241</v>
       </c>
@@ -22337,7 +22367,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
         <v>247</v>
       </c>
@@ -22363,7 +22393,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
         <v>253</v>
       </c>
@@ -22393,7 +22423,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
         <v>259</v>
       </c>
@@ -22421,7 +22451,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
         <v>265</v>
       </c>
@@ -22445,7 +22475,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
         <v>271</v>
       </c>
@@ -22473,11 +22503,13 @@
         <v>276</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
+    <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>277</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>5765</v>
       </c>
-      <c r="B48" s="1"/>
       <c r="C48" s="2" t="s">
         <v>277</v>
       </c>
@@ -22501,7 +22533,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
         <v>282</v>
       </c>
@@ -22527,7 +22559,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
         <v>288</v>
       </c>
@@ -22553,7 +22585,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
         <v>294</v>
       </c>
@@ -22581,7 +22613,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
         <v>300</v>
       </c>
@@ -22611,7 +22643,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
         <v>305</v>
       </c>
@@ -22639,7 +22671,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
         <v>311</v>
       </c>
@@ -22667,7 +22699,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
         <v>317</v>
       </c>
@@ -22678,10 +22710,12 @@
       <c r="D55" s="1" t="s">
         <v>5779</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E55" t="s">
+        <v>6978</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>5780</v>
       </c>
-      <c r="F55" s="1"/>
       <c r="G55" s="1" t="s">
         <v>319</v>
       </c>
@@ -22693,7 +22727,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
         <v>322</v>
       </c>
@@ -22719,15 +22753,17 @@
         <v>327</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
         <v>328</v>
       </c>
       <c r="B57" s="1"/>
-      <c r="C57" s="2" t="s">
+      <c r="C57" t="s">
+        <v>6977</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>5782</v>
       </c>
-      <c r="D57" s="1"/>
       <c r="E57" s="1" t="s">
         <v>329</v>
       </c>
@@ -22747,7 +22783,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
         <v>333</v>
       </c>
@@ -22775,7 +22811,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
         <v>338</v>
       </c>
@@ -22803,7 +22839,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
         <v>344</v>
       </c>
@@ -22827,7 +22863,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
         <v>350</v>
       </c>
@@ -22855,7 +22891,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
         <v>356</v>
       </c>
@@ -22883,7 +22919,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
         <v>362</v>
       </c>
@@ -22909,7 +22945,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
         <v>367</v>
       </c>
@@ -22933,7 +22969,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
         <v>373</v>
       </c>
@@ -22959,7 +22995,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
         <v>378</v>
       </c>
@@ -22983,7 +23019,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
         <v>384</v>
       </c>
@@ -23009,7 +23045,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
         <v>389</v>
       </c>
@@ -23035,7 +23071,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
         <v>394</v>
       </c>
@@ -23065,7 +23101,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
         <v>399</v>
       </c>
@@ -23093,7 +23129,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
         <v>405</v>
       </c>
@@ -23121,7 +23157,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="2" t="s">
         <v>410</v>
       </c>
@@ -23147,7 +23183,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
         <v>416</v>
       </c>
@@ -23175,7 +23211,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
         <v>422</v>
       </c>
@@ -23205,7 +23241,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
         <v>427</v>
       </c>
@@ -23231,7 +23267,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
         <v>433</v>
       </c>
@@ -23261,7 +23297,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
         <v>439</v>
       </c>
@@ -23289,7 +23325,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
         <v>445</v>
       </c>
@@ -23317,7 +23353,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
         <v>451</v>
       </c>
@@ -23343,7 +23379,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="2" t="s">
         <v>457</v>
       </c>
@@ -23371,7 +23407,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="2" t="s">
         <v>461</v>
       </c>
@@ -23397,7 +23433,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="2" t="s">
         <v>467</v>
       </c>
@@ -23423,7 +23459,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="2" t="s">
         <v>473</v>
       </c>
@@ -23451,7 +23487,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
         <v>479</v>
       </c>
@@ -23481,7 +23517,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="2" t="s">
         <v>485</v>
       </c>
@@ -23507,7 +23543,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="2" t="s">
         <v>491</v>
       </c>
@@ -23531,7 +23567,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="2" t="s">
         <v>497</v>
       </c>
@@ -23561,7 +23597,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
         <v>503</v>
       </c>
@@ -23585,7 +23621,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="2" t="s">
         <v>509</v>
       </c>
@@ -23611,7 +23647,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="2" t="s">
         <v>515</v>
       </c>
@@ -23639,7 +23675,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="2" t="s">
         <v>521</v>
       </c>
@@ -23667,7 +23703,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="2" t="s">
         <v>527</v>
       </c>
@@ -23693,7 +23729,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
         <v>533</v>
       </c>
@@ -23717,7 +23753,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="2" t="s">
         <v>539</v>
       </c>
@@ -23747,7 +23783,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="2" t="s">
         <v>545</v>
       </c>
@@ -23773,7 +23809,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="2" t="s">
         <v>551</v>
       </c>
@@ -23803,7 +23839,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="2" t="s">
         <v>555</v>
       </c>
@@ -23831,7 +23867,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
         <v>561</v>
       </c>
@@ -23855,7 +23891,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="2" t="s">
         <v>567</v>
       </c>
@@ -23881,7 +23917,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="2" t="s">
         <v>573</v>
       </c>
@@ -23906,15 +23942,17 @@
       </c>
       <c r="K100" s="1"/>
     </row>
-    <row r="101" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="2" t="s">
         <v>579</v>
       </c>
       <c r="B101" s="1"/>
-      <c r="C101" s="2" t="s">
+      <c r="C101" t="s">
+        <v>579</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>5846</v>
       </c>
-      <c r="D101" s="1"/>
       <c r="E101" s="1" t="s">
         <v>580</v>
       </c>
@@ -23934,7 +23972,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="2" t="s">
         <v>584</v>
       </c>
@@ -23960,7 +23998,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="2" t="s">
         <v>590</v>
       </c>
@@ -23988,7 +24026,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="2" t="s">
         <v>595</v>
       </c>
@@ -24014,7 +24052,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="2" t="s">
         <v>601</v>
       </c>
@@ -24046,7 +24084,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="2" t="s">
         <v>601</v>
       </c>
@@ -24076,7 +24114,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="2" t="s">
         <v>611</v>
       </c>
@@ -24100,7 +24138,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="2" t="s">
         <v>617</v>
       </c>
@@ -24124,7 +24162,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="2" t="s">
         <v>623</v>
       </c>
@@ -24148,7 +24186,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="2" t="s">
         <v>629</v>
       </c>
@@ -24176,7 +24214,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="2" t="s">
         <v>635</v>
       </c>
@@ -24206,7 +24244,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="2" t="s">
         <v>641</v>
       </c>
@@ -24230,7 +24268,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="2" t="s">
         <v>647</v>
       </c>
@@ -24254,7 +24292,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="2" t="s">
         <v>653</v>
       </c>
@@ -24282,7 +24320,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="2" t="s">
         <v>659</v>
       </c>
@@ -24306,7 +24344,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="116" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="2" t="s">
         <v>665</v>
       </c>
@@ -24332,7 +24370,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="2" t="s">
         <v>671</v>
       </c>
@@ -24356,7 +24394,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="2" t="s">
         <v>677</v>
       </c>
@@ -24384,7 +24422,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="119" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="2" t="s">
         <v>683</v>
       </c>
@@ -24410,7 +24448,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="2" t="s">
         <v>689</v>
       </c>
@@ -24434,7 +24472,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="121" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="2" t="s">
         <v>695</v>
       </c>
@@ -24460,7 +24498,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="122" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="2" t="s">
         <v>701</v>
       </c>
@@ -24488,7 +24526,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="123" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="2" t="s">
         <v>705</v>
       </c>
@@ -24512,7 +24550,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="124" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="2" t="s">
         <v>711</v>
       </c>
@@ -24544,7 +24582,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="125" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="2" t="s">
         <v>716</v>
       </c>
@@ -24572,7 +24610,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="126" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="2" t="s">
         <v>722</v>
       </c>
@@ -24596,7 +24634,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="127" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="2" t="s">
         <v>728</v>
       </c>
@@ -24622,7 +24660,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="128" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="2" t="s">
         <v>734</v>
       </c>
@@ -24650,7 +24688,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="129" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="2" t="s">
         <v>738</v>
       </c>
@@ -24676,7 +24714,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="130" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="2" t="s">
         <v>744</v>
       </c>
@@ -24704,7 +24742,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="131" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="2" t="s">
         <v>750</v>
       </c>
@@ -24728,7 +24766,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="132" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="2" t="s">
         <v>756</v>
       </c>
@@ -24756,7 +24794,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="133" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="2" t="s">
         <v>762</v>
       </c>
@@ -24786,7 +24824,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="134" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="2" t="s">
         <v>768</v>
       </c>
@@ -24812,7 +24850,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="135" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="2" t="s">
         <v>774</v>
       </c>
@@ -24836,7 +24874,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="136" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="2" t="s">
         <v>780</v>
       </c>
@@ -24860,7 +24898,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="137" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="2" t="s">
         <v>786</v>
       </c>
@@ -24884,7 +24922,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="138" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="2" t="s">
         <v>792</v>
       </c>
@@ -24910,7 +24948,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="139" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="2" t="s">
         <v>798</v>
       </c>
@@ -24934,7 +24972,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="140" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="2" t="s">
         <v>804</v>
       </c>
@@ -24958,7 +24996,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="141" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="2" t="s">
         <v>810</v>
       </c>
@@ -24982,7 +25020,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="142" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="2" t="s">
         <v>816</v>
       </c>
@@ -25008,7 +25046,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="143" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="2" t="s">
         <v>822</v>
       </c>
@@ -25034,7 +25072,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="144" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="2" t="s">
         <v>828</v>
       </c>
@@ -25062,7 +25100,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="145" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="2" t="s">
         <v>833</v>
       </c>
@@ -25090,7 +25128,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="146" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="2" t="s">
         <v>837</v>
       </c>
@@ -25114,7 +25152,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="147" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="2" t="s">
         <v>843</v>
       </c>
@@ -25142,7 +25180,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="148" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="2" t="s">
         <v>849</v>
       </c>
@@ -25170,7 +25208,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="149" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="2" t="s">
         <v>855</v>
       </c>
@@ -25194,7 +25232,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="150" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="2" t="s">
         <v>861</v>
       </c>
@@ -25218,7 +25256,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="151" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="2" t="s">
         <v>867</v>
       </c>
@@ -25244,7 +25282,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="152" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="2" t="s">
         <v>867</v>
       </c>
@@ -25268,7 +25306,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="153" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="2" t="s">
         <v>877</v>
       </c>
@@ -25294,7 +25332,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="154" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="2" t="s">
         <v>883</v>
       </c>
@@ -25318,7 +25356,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="155" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="2" t="s">
         <v>889</v>
       </c>
@@ -25342,7 +25380,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="156" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="2" t="s">
         <v>893</v>
       </c>
@@ -25368,7 +25406,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="157" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="2" t="s">
         <v>899</v>
       </c>
@@ -25396,7 +25434,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="158" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="2" t="s">
         <v>904</v>
       </c>
@@ -25422,7 +25460,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="159" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="2" t="s">
         <v>910</v>
       </c>
@@ -25448,7 +25486,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="160" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="2" t="s">
         <v>916</v>
       </c>
@@ -25472,7 +25510,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="161" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="2" t="s">
         <v>922</v>
       </c>
@@ -25496,7 +25534,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="162" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="2" t="s">
         <v>928</v>
       </c>
@@ -25520,7 +25558,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="163" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="2" t="s">
         <v>934</v>
       </c>
@@ -25544,7 +25582,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="164" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="2" t="s">
         <v>940</v>
       </c>
@@ -25574,7 +25612,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="165" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="2" t="s">
         <v>946</v>
       </c>
@@ -25598,7 +25636,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="166" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="2" t="s">
         <v>952</v>
       </c>
@@ -25624,7 +25662,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="167" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="2" t="s">
         <v>958</v>
       </c>
@@ -25652,7 +25690,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="168" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="2" t="s">
         <v>964</v>
       </c>
@@ -25678,7 +25716,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="169" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="2" t="s">
         <v>970</v>
       </c>
@@ -25706,7 +25744,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="170" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="2" t="s">
         <v>976</v>
       </c>
@@ -25730,7 +25768,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="171" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="2" t="s">
         <v>981</v>
       </c>
@@ -25754,7 +25792,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="172" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="2" t="s">
         <v>987</v>
       </c>
@@ -25780,7 +25818,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="173" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="2" t="s">
         <v>993</v>
       </c>
@@ -25804,7 +25842,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="174" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="2" t="s">
         <v>999</v>
       </c>
@@ -25834,7 +25872,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="175" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="2" t="s">
         <v>1005</v>
       </c>
@@ -25858,7 +25896,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="176" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="2" t="s">
         <v>1011</v>
       </c>
@@ -25882,7 +25920,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="177" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="2" t="s">
         <v>1017</v>
       </c>
@@ -25910,7 +25948,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="178" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="2" t="s">
         <v>1021</v>
       </c>
@@ -25936,7 +25974,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="179" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="2" t="s">
         <v>1027</v>
       </c>
@@ -25962,7 +26000,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="180" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="2" t="s">
         <v>1032</v>
       </c>
@@ -25986,7 +26024,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="181" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="2" t="s">
         <v>1038</v>
       </c>
@@ -26010,7 +26048,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="182" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="2" t="s">
         <v>1044</v>
       </c>
@@ -26034,7 +26072,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="183" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="2" t="s">
         <v>1050</v>
       </c>
@@ -26062,7 +26100,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="184" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="2" t="s">
         <v>1056</v>
       </c>
@@ -26086,7 +26124,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="185" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="2" t="s">
         <v>1062</v>
       </c>
@@ -26114,7 +26152,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="186" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="2" t="s">
         <v>1062</v>
       </c>
@@ -26142,7 +26180,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="187" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="2" t="s">
         <v>1072</v>
       </c>
@@ -26166,7 +26204,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="188" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="2" t="s">
         <v>1078</v>
       </c>
@@ -26192,7 +26230,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="189" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="2" t="s">
         <v>1084</v>
       </c>
@@ -26218,7 +26256,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="190" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="2" t="s">
         <v>1090</v>
       </c>
@@ -26246,7 +26284,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="191" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="2" t="s">
         <v>1096</v>
       </c>
@@ -26272,7 +26310,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="192" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="2" t="s">
         <v>1102</v>
       </c>
@@ -26302,7 +26340,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="193" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="2" t="s">
         <v>1106</v>
       </c>
@@ -26328,7 +26366,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="194" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="2" t="s">
         <v>1112</v>
       </c>
@@ -26352,7 +26390,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="195" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="2" t="s">
         <v>1118</v>
       </c>
@@ -26378,7 +26416,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="196" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="2" t="s">
         <v>1124</v>
       </c>
@@ -26404,7 +26442,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="197" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="2" t="s">
         <v>1130</v>
       </c>
@@ -26428,7 +26466,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="198" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="2" t="s">
         <v>1135</v>
       </c>
@@ -26452,7 +26490,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="199" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="2" t="s">
         <v>59</v>
       </c>
@@ -26478,7 +26516,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="200" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="2" t="s">
         <v>1144</v>
       </c>
@@ -26504,7 +26542,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="201" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="2" t="s">
         <v>1150</v>
       </c>
@@ -26532,7 +26570,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="202" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="2" t="s">
         <v>1156</v>
       </c>
@@ -26556,7 +26594,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="203" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="2" t="s">
         <v>1162</v>
       </c>
@@ -26584,7 +26622,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="204" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="2" t="s">
         <v>1168</v>
       </c>
@@ -26614,7 +26652,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="205" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="2" t="s">
         <v>1174</v>
       </c>
@@ -26640,7 +26678,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="206" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="2" t="s">
         <v>1180</v>
       </c>
@@ -26666,7 +26704,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="207" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="2" t="s">
         <v>1186</v>
       </c>
@@ -26690,7 +26728,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="208" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="2" t="s">
         <v>1192</v>
       </c>
@@ -26716,7 +26754,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="209" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="2" t="s">
         <v>1198</v>
       </c>
@@ -26746,7 +26784,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="210" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="2" t="s">
         <v>1204</v>
       </c>
@@ -26774,7 +26812,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="211" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="2" t="s">
         <v>1210</v>
       </c>
@@ -26800,7 +26838,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="212" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="2" t="s">
         <v>1215</v>
       </c>
@@ -26828,7 +26866,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="213" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="2" t="s">
         <v>1221</v>
       </c>
@@ -26856,7 +26894,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="214" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="2" t="s">
         <v>1226</v>
       </c>
@@ -26880,7 +26918,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="215" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="2" t="s">
         <v>1232</v>
       </c>
@@ -26910,7 +26948,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="216" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="2" t="s">
         <v>1238</v>
       </c>
@@ -26934,7 +26972,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="217" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="2" t="s">
         <v>1243</v>
       </c>
@@ -26958,7 +26996,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="218" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="2" t="s">
         <v>1249</v>
       </c>
@@ -26982,7 +27020,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="219" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="2" t="s">
         <v>1255</v>
       </c>
@@ -27010,7 +27048,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="220" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="2" t="s">
         <v>1261</v>
       </c>
@@ -27040,7 +27078,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="221" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="2" t="s">
         <v>1216</v>
       </c>
@@ -27066,7 +27104,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="222" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="2" t="s">
         <v>1270</v>
       </c>
@@ -27092,7 +27130,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="223" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="2" t="s">
         <v>1276</v>
       </c>
@@ -27118,7 +27156,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="224" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="2" t="s">
         <v>1282</v>
       </c>
@@ -27144,7 +27182,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="225" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="2" t="s">
         <v>1288</v>
       </c>
@@ -27172,7 +27210,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="226" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="2" t="s">
         <v>1294</v>
       </c>
@@ -27198,7 +27236,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="227" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="2" t="s">
         <v>1300</v>
       </c>
@@ -27224,7 +27262,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="228" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="2" t="s">
         <v>1306</v>
       </c>
@@ -27248,7 +27286,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="229" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="2" t="s">
         <v>1312</v>
       </c>
@@ -27274,7 +27312,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="230" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="2" t="s">
         <v>1318</v>
       </c>
@@ -27304,7 +27342,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="231" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="2" t="s">
         <v>1323</v>
       </c>
@@ -27330,7 +27368,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="232" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="2" t="s">
         <v>1329</v>
       </c>
@@ -27343,10 +27381,12 @@
         <v>1331</v>
       </c>
       <c r="F232" s="1"/>
-      <c r="G232" s="1" t="s">
+      <c r="G232" t="s">
+        <v>6979</v>
+      </c>
+      <c r="H232" s="1" t="s">
         <v>5972</v>
       </c>
-      <c r="H232" s="1"/>
       <c r="I232" s="4" t="s">
         <v>1332</v>
       </c>
@@ -27354,7 +27394,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="233" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="2" t="s">
         <v>1334</v>
       </c>
@@ -27378,7 +27418,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="234" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="2" t="s">
         <v>1340</v>
       </c>
@@ -27404,7 +27444,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="235" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="2" t="s">
         <v>1346</v>
       </c>
@@ -27430,7 +27470,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="236" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="2" t="s">
         <v>1352</v>
       </c>
@@ -27458,7 +27498,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="237" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="2" t="s">
         <v>1358</v>
       </c>
@@ -27486,7 +27526,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="238" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" s="2" t="s">
         <v>1363</v>
       </c>
@@ -27512,7 +27552,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="239" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" s="2" t="s">
         <v>1369</v>
       </c>
@@ -27544,7 +27584,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="240" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" s="2" t="s">
         <v>1375</v>
       </c>
@@ -27568,7 +27608,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="241" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" s="2" t="s">
         <v>1381</v>
       </c>
@@ -27596,7 +27636,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="242" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" s="2" t="s">
         <v>1387</v>
       </c>
@@ -27626,7 +27666,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="243" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" s="2" t="s">
         <v>1393</v>
       </c>
@@ -27652,7 +27692,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="244" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" s="2" t="s">
         <v>1399</v>
       </c>
@@ -27676,7 +27716,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="245" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="2" t="s">
         <v>1404</v>
       </c>
@@ -27700,7 +27740,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="246" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A246" s="2" t="s">
         <v>1410</v>
       </c>
@@ -27726,7 +27766,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="247" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A247" s="2" t="s">
         <v>1416</v>
       </c>
@@ -27750,7 +27790,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="248" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A248" s="2" t="s">
         <v>1422</v>
       </c>
@@ -27780,7 +27820,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="249" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A249" s="2" t="s">
         <v>1428</v>
       </c>
@@ -27808,7 +27848,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="250" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A250" s="2" t="s">
         <v>1434</v>
       </c>
@@ -27836,7 +27876,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="251" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A251" s="2" t="s">
         <v>1440</v>
       </c>
@@ -27864,7 +27904,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="252" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A252" s="2" t="s">
         <v>1446</v>
       </c>
@@ -27892,7 +27932,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="253" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A253" s="2" t="s">
         <v>1452</v>
       </c>
@@ -27920,7 +27960,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="254" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A254" s="2" t="s">
         <v>1458</v>
       </c>
@@ -27944,7 +27984,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="255" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A255" s="2" t="s">
         <v>1464</v>
       </c>
@@ -27968,7 +28008,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="256" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A256" s="2" t="s">
         <v>1470</v>
       </c>
@@ -27992,7 +28032,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="257" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A257" s="2" t="s">
         <v>1476</v>
       </c>
@@ -28020,7 +28060,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="258" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A258" s="2" t="s">
         <v>1482</v>
       </c>
@@ -28044,7 +28084,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="259" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A259" s="2" t="s">
         <v>1488</v>
       </c>
@@ -28070,7 +28110,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="260" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A260" s="2" t="s">
         <v>1494</v>
       </c>
@@ -28094,7 +28134,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="261" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A261" s="2" t="s">
         <v>1500</v>
       </c>
@@ -28122,7 +28162,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="262" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A262" s="2" t="s">
         <v>1500</v>
       </c>
@@ -28150,7 +28190,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="263" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A263" s="2" t="s">
         <v>1510</v>
       </c>
@@ -28178,7 +28218,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="264" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A264" s="2" t="s">
         <v>1516</v>
       </c>
@@ -28202,7 +28242,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="265" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A265" s="2" t="s">
         <v>1522</v>
       </c>
@@ -28230,7 +28270,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="266" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A266" s="2" t="s">
         <v>1528</v>
       </c>
@@ -28258,7 +28298,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="267" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A267" s="2" t="s">
         <v>1534</v>
       </c>
@@ -28286,7 +28326,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="268" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A268" s="2" t="s">
         <v>1540</v>
       </c>
@@ -28314,7 +28354,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="269" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A269" s="2" t="s">
         <v>1546</v>
       </c>
@@ -28342,7 +28382,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="270" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A270" s="2" t="s">
         <v>1552</v>
       </c>
@@ -28366,7 +28406,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="271" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A271" s="2" t="s">
         <v>1558</v>
       </c>
@@ -28390,7 +28430,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="272" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A272" s="2" t="s">
         <v>1564</v>
       </c>
@@ -28416,7 +28456,7 @@
         <v>1569</v>
       </c>
     </row>
-    <row r="273" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A273" s="2" t="s">
         <v>1570</v>
       </c>
@@ -28444,7 +28484,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="274" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A274" s="2" t="s">
         <v>1576</v>
       </c>
@@ -28468,7 +28508,7 @@
         <v>1581</v>
       </c>
     </row>
-    <row r="275" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A275" s="2" t="s">
         <v>1582</v>
       </c>
@@ -28494,7 +28534,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="276" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A276" s="2" t="s">
         <v>1588</v>
       </c>
@@ -28518,7 +28558,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="277" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A277" s="2" t="s">
         <v>1594</v>
       </c>
@@ -28544,7 +28584,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="278" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A278" s="2" t="s">
         <v>1600</v>
       </c>
@@ -28568,7 +28608,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="279" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A279" s="2" t="s">
         <v>1606</v>
       </c>
@@ -28598,7 +28638,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="280" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A280" s="2" t="s">
         <v>1611</v>
       </c>
@@ -28624,7 +28664,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="281" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A281" s="2" t="s">
         <v>1617</v>
       </c>
@@ -28652,7 +28692,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="282" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A282" s="2" t="s">
         <v>1623</v>
       </c>
@@ -28676,7 +28716,7 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="283" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A283" s="2" t="s">
         <v>1629</v>
       </c>
@@ -28702,7 +28742,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="284" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A284" s="2" t="s">
         <v>1635</v>
       </c>
@@ -28730,7 +28770,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="285" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A285" s="2" t="s">
         <v>1641</v>
       </c>
@@ -28756,7 +28796,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="286" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A286" s="2" t="s">
         <v>1647</v>
       </c>
@@ -28786,7 +28826,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="287" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A287" s="2" t="s">
         <v>1653</v>
       </c>
@@ -28816,7 +28856,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="288" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A288" s="2" t="s">
         <v>1659</v>
       </c>
@@ -28844,7 +28884,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="289" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A289" s="2" t="s">
         <v>1663</v>
       </c>
@@ -28868,7 +28908,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="290" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A290" s="2" t="s">
         <v>1669</v>
       </c>
@@ -28894,7 +28934,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="291" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A291" s="2" t="s">
         <v>1675</v>
       </c>
@@ -28920,7 +28960,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="292" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A292" s="2" t="s">
         <v>1681</v>
       </c>
@@ -28944,7 +28984,7 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="293" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A293" s="2" t="s">
         <v>1687</v>
       </c>
@@ -28968,7 +29008,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="294" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A294" s="2" t="s">
         <v>1693</v>
       </c>
@@ -28996,7 +29036,7 @@
         <v>1698</v>
       </c>
     </row>
-    <row r="295" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A295" s="2" t="s">
         <v>1699</v>
       </c>
@@ -29020,7 +29060,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="296" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A296" s="2" t="s">
         <v>1705</v>
       </c>
@@ -29044,7 +29084,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="297" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A297" s="2" t="s">
         <v>1711</v>
       </c>
@@ -29070,7 +29110,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="298" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A298" s="2" t="s">
         <v>1717</v>
       </c>
@@ -29098,7 +29138,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="299" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A299" s="2" t="s">
         <v>1723</v>
       </c>
@@ -29122,7 +29162,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="300" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A300" s="2" t="s">
         <v>1729</v>
       </c>
@@ -29146,7 +29186,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="301" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A301" s="2" t="s">
         <v>1734</v>
       </c>
@@ -29176,7 +29216,7 @@
         <v>1739</v>
       </c>
     </row>
-    <row r="302" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A302" s="2" t="s">
         <v>1740</v>
       </c>
@@ -29200,7 +29240,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="303" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A303" s="2" t="s">
         <v>1746</v>
       </c>
@@ -29224,7 +29264,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="304" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A304" s="2" t="s">
         <v>1752</v>
       </c>
@@ -29250,7 +29290,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="305" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A305" s="2" t="s">
         <v>1758</v>
       </c>
@@ -29276,7 +29316,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="306" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A306" s="2" t="s">
         <v>1764</v>
       </c>
@@ -29302,7 +29342,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="307" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A307" s="2" t="s">
         <v>1770</v>
       </c>
@@ -29326,7 +29366,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="308" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A308" s="2" t="s">
         <v>1776</v>
       </c>
@@ -29350,7 +29390,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="309" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A309" s="2" t="s">
         <v>1782</v>
       </c>
@@ -29376,7 +29416,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="310" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A310" s="2" t="s">
         <v>1788</v>
       </c>
@@ -29404,7 +29444,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="311" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A311" s="2" t="s">
         <v>1793</v>
       </c>
@@ -29430,7 +29470,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="312" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A312" s="2" t="s">
         <v>1799</v>
       </c>
@@ -29456,7 +29496,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="313" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A313" s="2" t="s">
         <v>1805</v>
       </c>
@@ -29480,7 +29520,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="314" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A314" s="2" t="s">
         <v>1811</v>
       </c>
@@ -29506,7 +29546,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="315" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A315" s="2" t="s">
         <v>1817</v>
       </c>
@@ -29530,7 +29570,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="316" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A316" s="2" t="s">
         <v>1181</v>
       </c>
@@ -29554,7 +29594,7 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="317" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A317" s="2" t="s">
         <v>1827</v>
       </c>
@@ -29582,7 +29622,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="318" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A318" s="2" t="s">
         <v>1831</v>
       </c>
@@ -29608,7 +29648,7 @@
         <v>1836</v>
       </c>
     </row>
-    <row r="319" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A319" s="2" t="s">
         <v>1837</v>
       </c>
@@ -29634,7 +29674,7 @@
         <v>1842</v>
       </c>
     </row>
-    <row r="320" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A320" s="2" t="s">
         <v>1843</v>
       </c>
@@ -29658,7 +29698,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="321" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A321" s="2" t="s">
         <v>1849</v>
       </c>
@@ -29684,7 +29724,7 @@
         <v>1854</v>
       </c>
     </row>
-    <row r="322" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A322" s="2" t="s">
         <v>1855</v>
       </c>
@@ -29710,7 +29750,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="323" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A323" s="2" t="s">
         <v>1861</v>
       </c>
@@ -29736,7 +29776,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="324" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A324" s="2" t="s">
         <v>1867</v>
       </c>
@@ -29764,7 +29804,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="325" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A325" s="2" t="s">
         <v>1872</v>
       </c>
@@ -29788,7 +29828,7 @@
         <v>1877</v>
       </c>
     </row>
-    <row r="326" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A326" s="2" t="s">
         <v>1878</v>
       </c>
@@ -29812,7 +29852,7 @@
         <v>1883</v>
       </c>
     </row>
-    <row r="327" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A327" s="2" t="s">
         <v>1884</v>
       </c>
@@ -29838,7 +29878,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="328" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A328" s="2" t="s">
         <v>1888</v>
       </c>
@@ -29862,7 +29902,7 @@
         <v>1893</v>
       </c>
     </row>
-    <row r="329" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A329" s="2" t="s">
         <v>1894</v>
       </c>
@@ -29890,7 +29930,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="330" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A330" s="2" t="s">
         <v>1900</v>
       </c>
@@ -29916,7 +29956,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="331" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A331" s="2" t="s">
         <v>1906</v>
       </c>
@@ -29940,7 +29980,7 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="332" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A332" s="2" t="s">
         <v>1912</v>
       </c>
@@ -29964,7 +30004,7 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="333" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A333" s="2" t="s">
         <v>1918</v>
       </c>
@@ -29992,7 +30032,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="334" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A334" s="2" t="s">
         <v>1924</v>
       </c>
@@ -30016,7 +30056,7 @@
         <v>1929</v>
       </c>
     </row>
-    <row r="335" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A335" s="2" t="s">
         <v>1930</v>
       </c>
@@ -30046,7 +30086,7 @@
         <v>1935</v>
       </c>
     </row>
-    <row r="336" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A336" s="2" t="s">
         <v>1936</v>
       </c>
@@ -30076,7 +30116,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="337" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A337" s="2" t="s">
         <v>1942</v>
       </c>
@@ -30102,7 +30142,7 @@
         <v>1947</v>
       </c>
     </row>
-    <row r="338" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A338" s="2" t="s">
         <v>1948</v>
       </c>
@@ -30128,7 +30168,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="339" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A339" s="2" t="s">
         <v>1954</v>
       </c>
@@ -30154,7 +30194,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="340" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A340" s="2" t="s">
         <v>1960</v>
       </c>
@@ -30178,7 +30218,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="341" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A341" s="2" t="s">
         <v>1966</v>
       </c>
@@ -30206,7 +30246,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="342" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A342" s="2" t="s">
         <v>1970</v>
       </c>
@@ -30230,7 +30270,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="343" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A343" s="2" t="s">
         <v>1976</v>
       </c>
@@ -30256,7 +30296,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="344" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A344" s="2" t="s">
         <v>1982</v>
       </c>
@@ -30286,7 +30326,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="345" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A345" s="2" t="s">
         <v>1988</v>
       </c>
@@ -30314,7 +30354,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="346" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A346" s="2" t="s">
         <v>1992</v>
       </c>
@@ -30340,7 +30380,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="347" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A347" s="2" t="s">
         <v>1998</v>
       </c>
@@ -30369,7 +30409,7 @@
         <v>6975</v>
       </c>
     </row>
-    <row r="348" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A348" s="2" t="s">
         <v>2004</v>
       </c>
@@ -30393,7 +30433,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="349" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A349" s="2" t="s">
         <v>2010</v>
       </c>
@@ -30417,7 +30457,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="350" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A350" s="2" t="s">
         <v>2016</v>
       </c>
@@ -30443,7 +30483,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="351" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A351" s="2" t="s">
         <v>2022</v>
       </c>
@@ -30467,7 +30507,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="352" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A352" s="2" t="s">
         <v>2028</v>
       </c>
@@ -30493,7 +30533,7 @@
         <v>2033</v>
       </c>
     </row>
-    <row r="353" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A353" s="2" t="s">
         <v>2034</v>
       </c>
@@ -30517,7 +30557,7 @@
         <v>2039</v>
       </c>
     </row>
-    <row r="354" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A354" s="2" t="s">
         <v>2040</v>
       </c>
@@ -30541,7 +30581,7 @@
         <v>2045</v>
       </c>
     </row>
-    <row r="355" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A355" s="2" t="s">
         <v>2046</v>
       </c>
@@ -30566,7 +30606,7 @@
         <v>2051</v>
       </c>
     </row>
-    <row r="356" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A356" s="2" t="s">
         <v>2052</v>
       </c>
@@ -30592,7 +30632,7 @@
         <v>2057</v>
       </c>
     </row>
-    <row r="357" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A357" s="2" t="s">
         <v>2058</v>
       </c>
@@ -30620,7 +30660,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="358" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A358" s="2" t="s">
         <v>2064</v>
       </c>
@@ -30648,7 +30688,7 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="359" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A359" s="2" t="s">
         <v>2070</v>
       </c>
@@ -30676,7 +30716,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="360" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A360" s="2" t="s">
         <v>2076</v>
       </c>
@@ -30704,7 +30744,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="361" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A361" s="2" t="s">
         <v>2082</v>
       </c>
@@ -30730,7 +30770,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="362" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A362" s="2" t="s">
         <v>2088</v>
       </c>
@@ -30758,7 +30798,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="363" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A363" s="2" t="s">
         <v>2094</v>
       </c>
@@ -30784,7 +30824,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="364" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A364" s="2" t="s">
         <v>2100</v>
       </c>
@@ -30808,7 +30848,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="365" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A365" s="2" t="s">
         <v>2106</v>
       </c>
@@ -30834,7 +30874,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="366" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A366" s="2" t="s">
         <v>2112</v>
       </c>
@@ -30858,7 +30898,7 @@
         <v>2117</v>
       </c>
     </row>
-    <row r="367" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A367" s="2" t="s">
         <v>2118</v>
       </c>
@@ -30888,7 +30928,7 @@
         <v>2123</v>
       </c>
     </row>
-    <row r="368" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A368" s="2" t="s">
         <v>2124</v>
       </c>
@@ -30912,7 +30952,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="369" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A369" s="2" t="s">
         <v>2130</v>
       </c>
@@ -30945,7 +30985,7 @@
         <v>6948</v>
       </c>
     </row>
-    <row r="370" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A370" s="2" t="s">
         <v>2135</v>
       </c>
@@ -30971,7 +31011,7 @@
         <v>2140</v>
       </c>
     </row>
-    <row r="371" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A371" s="2" t="s">
         <v>2141</v>
       </c>
@@ -30999,7 +31039,7 @@
         <v>2143</v>
       </c>
     </row>
-    <row r="372" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A372" s="2" t="s">
         <v>2144</v>
       </c>
@@ -31023,7 +31063,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="373" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A373" s="2" t="s">
         <v>2150</v>
       </c>
@@ -31049,7 +31089,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="374" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A374" s="2" t="s">
         <v>2156</v>
       </c>
@@ -31075,7 +31115,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="375" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A375" s="2" t="s">
         <v>2162</v>
       </c>
@@ -31099,7 +31139,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="376" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A376" s="2" t="s">
         <v>2168</v>
       </c>
@@ -31125,7 +31165,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="377" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A377" s="2" t="s">
         <v>2174</v>
       </c>
@@ -31155,7 +31195,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="378" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A378" s="2" t="s">
         <v>2180</v>
       </c>
@@ -31183,7 +31223,7 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="379" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A379" s="2" t="s">
         <v>2186</v>
       </c>
@@ -31211,7 +31251,7 @@
         <v>2191</v>
       </c>
     </row>
-    <row r="380" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A380" s="2" t="s">
         <v>2192</v>
       </c>
@@ -31237,7 +31277,7 @@
         <v>2197</v>
       </c>
     </row>
-    <row r="381" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A381" s="2" t="s">
         <v>2198</v>
       </c>
@@ -31263,7 +31303,7 @@
         <v>2203</v>
       </c>
     </row>
-    <row r="382" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A382" s="2" t="s">
         <v>2204</v>
       </c>
@@ -31291,7 +31331,7 @@
         <v>2209</v>
       </c>
     </row>
-    <row r="383" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A383" s="2" t="s">
         <v>2210</v>
       </c>
@@ -31321,7 +31361,7 @@
         <v>2215</v>
       </c>
     </row>
-    <row r="384" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A384" s="2" t="s">
         <v>2216</v>
       </c>
@@ -31345,7 +31385,7 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="385" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A385" s="2" t="s">
         <v>2222</v>
       </c>
@@ -31369,7 +31409,7 @@
         <v>2227</v>
       </c>
     </row>
-    <row r="386" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A386" s="2" t="s">
         <v>2228</v>
       </c>
@@ -31393,7 +31433,7 @@
         <v>2233</v>
       </c>
     </row>
-    <row r="387" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A387" s="2" t="s">
         <v>2234</v>
       </c>
@@ -31419,7 +31459,7 @@
         <v>2239</v>
       </c>
     </row>
-    <row r="388" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A388" s="2" t="s">
         <v>2240</v>
       </c>
@@ -31445,7 +31485,7 @@
         <v>2245</v>
       </c>
     </row>
-    <row r="389" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A389" s="2" t="s">
         <v>2246</v>
       </c>
@@ -31473,7 +31513,7 @@
         <v>2251</v>
       </c>
     </row>
-    <row r="390" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A390" s="2" t="s">
         <v>2252</v>
       </c>
@@ -31497,7 +31537,7 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="391" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A391" s="2" t="s">
         <v>2258</v>
       </c>
@@ -31523,7 +31563,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="392" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A392" s="2" t="s">
         <v>2264</v>
       </c>
@@ -31547,7 +31587,7 @@
         <v>2269</v>
       </c>
     </row>
-    <row r="393" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A393" s="2" t="s">
         <v>2270</v>
       </c>
@@ -31575,7 +31615,7 @@
         <v>2275</v>
       </c>
     </row>
-    <row r="394" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A394" s="2" t="s">
         <v>2276</v>
       </c>
@@ -31603,7 +31643,7 @@
         <v>2280</v>
       </c>
     </row>
-    <row r="395" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A395" s="2" t="s">
         <v>2281</v>
       </c>
@@ -31629,7 +31669,7 @@
         <v>2286</v>
       </c>
     </row>
-    <row r="396" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A396" s="2" t="s">
         <v>2287</v>
       </c>
@@ -31655,7 +31695,7 @@
         <v>2292</v>
       </c>
     </row>
-    <row r="397" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A397" s="2" t="s">
         <v>2293</v>
       </c>
@@ -31679,7 +31719,7 @@
         <v>2298</v>
       </c>
     </row>
-    <row r="398" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A398" s="2" t="s">
         <v>2299</v>
       </c>
@@ -31703,7 +31743,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="399" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A399" s="2" t="s">
         <v>2305</v>
       </c>
@@ -31727,7 +31767,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="400" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A400" s="2" t="s">
         <v>2311</v>
       </c>
@@ -31753,7 +31793,7 @@
         <v>2316</v>
       </c>
     </row>
-    <row r="401" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A401" s="2" t="s">
         <v>2317</v>
       </c>
@@ -31779,7 +31819,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="402" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A402" s="2" t="s">
         <v>2323</v>
       </c>
@@ -31805,7 +31845,7 @@
         <v>2328</v>
       </c>
     </row>
-    <row r="403" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A403" s="2" t="s">
         <v>2329</v>
       </c>
@@ -31831,7 +31871,7 @@
         <v>2334</v>
       </c>
     </row>
-    <row r="404" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A404" s="2" t="s">
         <v>2335</v>
       </c>
@@ -31857,7 +31897,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="405" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A405" s="2" t="s">
         <v>2341</v>
       </c>
@@ -31881,7 +31921,7 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="406" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A406" s="2" t="s">
         <v>1907</v>
       </c>
@@ -31909,7 +31949,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="407" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A407" s="2" t="s">
         <v>2351</v>
       </c>
@@ -31939,7 +31979,7 @@
         <v>2354</v>
       </c>
     </row>
-    <row r="408" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A408" s="2" t="s">
         <v>2355</v>
       </c>
@@ -31963,7 +32003,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="409" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A409" s="2" t="s">
         <v>2361</v>
       </c>
@@ -31989,7 +32029,7 @@
         <v>2366</v>
       </c>
     </row>
-    <row r="410" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A410" s="2" t="s">
         <v>2367</v>
       </c>
@@ -32015,7 +32055,7 @@
         <v>2372</v>
       </c>
     </row>
-    <row r="411" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A411" s="2" t="s">
         <v>2373</v>
       </c>
@@ -32041,7 +32081,7 @@
         <v>2378</v>
       </c>
     </row>
-    <row r="412" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A412" s="2" t="s">
         <v>2379</v>
       </c>
@@ -32065,7 +32105,7 @@
         <v>2384</v>
       </c>
     </row>
-    <row r="413" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A413" s="2" t="s">
         <v>2385</v>
       </c>
@@ -32089,7 +32129,7 @@
         <v>2388</v>
       </c>
     </row>
-    <row r="414" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A414" s="2" t="s">
         <v>2389</v>
       </c>
@@ -32117,7 +32157,7 @@
         <v>2394</v>
       </c>
     </row>
-    <row r="415" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A415" s="2" t="s">
         <v>2395</v>
       </c>
@@ -32141,7 +32181,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="416" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A416" s="2" t="s">
         <v>2401</v>
       </c>
@@ -32167,7 +32207,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="417" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A417" s="2" t="s">
         <v>2407</v>
       </c>
@@ -32193,7 +32233,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="418" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A418" s="2" t="s">
         <v>2413</v>
       </c>
@@ -32221,7 +32261,7 @@
         <v>2418</v>
       </c>
     </row>
-    <row r="419" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A419" s="2" t="s">
         <v>1073</v>
       </c>
@@ -32247,7 +32287,7 @@
         <v>2422</v>
       </c>
     </row>
-    <row r="420" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A420" s="2" t="s">
         <v>2423</v>
       </c>
@@ -32271,7 +32311,7 @@
         <v>2428</v>
       </c>
     </row>
-    <row r="421" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A421" s="2" t="s">
         <v>2429</v>
       </c>
@@ -32295,7 +32335,7 @@
         <v>2434</v>
       </c>
     </row>
-    <row r="422" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A422" s="2" t="s">
         <v>2429</v>
       </c>
@@ -32319,7 +32359,7 @@
         <v>2438</v>
       </c>
     </row>
-    <row r="423" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A423" s="2" t="s">
         <v>2439</v>
       </c>
@@ -32345,7 +32385,7 @@
         <v>2444</v>
       </c>
     </row>
-    <row r="424" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A424" s="2" t="s">
         <v>2445</v>
       </c>
@@ -32373,7 +32413,7 @@
         <v>2450</v>
       </c>
     </row>
-    <row r="425" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A425" s="2" t="s">
         <v>2451</v>
       </c>
@@ -32397,7 +32437,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="426" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A426" s="2" t="s">
         <v>2457</v>
       </c>
@@ -32427,7 +32467,7 @@
         <v>2462</v>
       </c>
     </row>
-    <row r="427" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A427" s="2" t="s">
         <v>2463</v>
       </c>
@@ -32455,7 +32495,7 @@
         <v>2468</v>
       </c>
     </row>
-    <row r="428" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A428" s="2" t="s">
         <v>2469</v>
       </c>
@@ -32479,7 +32519,7 @@
         <v>2474</v>
       </c>
     </row>
-    <row r="429" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A429" s="2" t="s">
         <v>2475</v>
       </c>
@@ -32507,7 +32547,7 @@
         <v>2480</v>
       </c>
     </row>
-    <row r="430" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A430" s="2" t="s">
         <v>2481</v>
       </c>
@@ -32533,7 +32573,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="431" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A431" s="2" t="s">
         <v>2487</v>
       </c>
@@ -32557,7 +32597,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="432" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A432" s="2" t="s">
         <v>2493</v>
       </c>
@@ -32585,7 +32625,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="433" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A433" s="2" t="s">
         <v>2499</v>
       </c>
@@ -32609,7 +32649,7 @@
         <v>2504</v>
       </c>
     </row>
-    <row r="434" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A434" s="2" t="s">
         <v>2505</v>
       </c>
@@ -32635,7 +32675,7 @@
         <v>2510</v>
       </c>
     </row>
-    <row r="435" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A435" s="2" t="s">
         <v>2511</v>
       </c>
@@ -32659,7 +32699,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="436" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A436" s="2" t="s">
         <v>2517</v>
       </c>
@@ -32687,7 +32727,7 @@
         <v>2522</v>
       </c>
     </row>
-    <row r="437" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A437" s="2" t="s">
         <v>2523</v>
       </c>
@@ -32713,7 +32753,7 @@
         <v>2528</v>
       </c>
     </row>
-    <row r="438" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A438" s="2" t="s">
         <v>2529</v>
       </c>
@@ -32739,7 +32779,7 @@
         <v>2534</v>
       </c>
     </row>
-    <row r="439" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A439" s="2" t="s">
         <v>2071</v>
       </c>
@@ -32767,7 +32807,7 @@
         <v>2538</v>
       </c>
     </row>
-    <row r="440" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A440" s="2" t="s">
         <v>2539</v>
       </c>
@@ -32793,7 +32833,7 @@
         <v>2544</v>
       </c>
     </row>
-    <row r="441" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A441" s="2" t="s">
         <v>2545</v>
       </c>
@@ -32821,7 +32861,7 @@
         <v>2550</v>
       </c>
     </row>
-    <row r="442" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A442" s="2" t="s">
         <v>2551</v>
       </c>
@@ -32845,7 +32885,7 @@
         <v>2556</v>
       </c>
     </row>
-    <row r="443" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A443" s="2" t="s">
         <v>2557</v>
       </c>
@@ -32873,7 +32913,7 @@
         <v>2561</v>
       </c>
     </row>
-    <row r="444" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A444" s="2" t="s">
         <v>2562</v>
       </c>
@@ -32901,7 +32941,7 @@
         <v>2567</v>
       </c>
     </row>
-    <row r="445" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A445" s="2" t="s">
         <v>2568</v>
       </c>
@@ -32929,7 +32969,7 @@
         <v>2573</v>
       </c>
     </row>
-    <row r="446" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A446" s="2" t="s">
         <v>2568</v>
       </c>
@@ -32955,7 +32995,7 @@
         <v>2577</v>
       </c>
     </row>
-    <row r="447" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A447" s="2" t="s">
         <v>2578</v>
       </c>
@@ -32983,7 +33023,7 @@
         <v>2583</v>
       </c>
     </row>
-    <row r="448" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A448" s="2" t="s">
         <v>2584</v>
       </c>
@@ -33009,7 +33049,7 @@
         <v>2589</v>
       </c>
     </row>
-    <row r="449" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A449" s="2" t="s">
         <v>2590</v>
       </c>
@@ -33039,7 +33079,7 @@
         <v>2594</v>
       </c>
     </row>
-    <row r="450" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A450" s="2" t="s">
         <v>2595</v>
       </c>
@@ -33063,7 +33103,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="451" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A451" s="2" t="s">
         <v>2601</v>
       </c>
@@ -33091,7 +33131,7 @@
         <v>2606</v>
       </c>
     </row>
-    <row r="452" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A452" s="2" t="s">
         <v>2607</v>
       </c>
@@ -33115,7 +33155,7 @@
         <v>2612</v>
       </c>
     </row>
-    <row r="453" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A453" s="2" t="s">
         <v>2607</v>
       </c>
@@ -33143,7 +33183,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="454" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A454" s="2" t="s">
         <v>2617</v>
       </c>
@@ -33169,7 +33209,7 @@
         <v>2621</v>
       </c>
     </row>
-    <row r="455" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A455" s="2" t="s">
         <v>2622</v>
       </c>
@@ -33195,7 +33235,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="456" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A456" s="2" t="s">
         <v>2628</v>
       </c>
@@ -33225,7 +33265,7 @@
         <v>2631</v>
       </c>
     </row>
-    <row r="457" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A457" s="2" t="s">
         <v>2632</v>
       </c>
@@ -33251,7 +33291,7 @@
         <v>2637</v>
       </c>
     </row>
-    <row r="458" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A458" s="2" t="s">
         <v>2638</v>
       </c>
@@ -33275,7 +33315,7 @@
         <v>2641</v>
       </c>
     </row>
-    <row r="459" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A459" s="2" t="s">
         <v>2642</v>
       </c>
@@ -33301,7 +33341,7 @@
         <v>2647</v>
       </c>
     </row>
-    <row r="460" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A460" s="2" t="s">
         <v>2648</v>
       </c>
@@ -33327,7 +33367,7 @@
         <v>2653</v>
       </c>
     </row>
-    <row r="461" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A461" s="2" t="s">
         <v>2654</v>
       </c>
@@ -33353,7 +33393,7 @@
         <v>2659</v>
       </c>
     </row>
-    <row r="462" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A462" s="2" t="s">
         <v>2660</v>
       </c>
@@ -33381,7 +33421,7 @@
         <v>2665</v>
       </c>
     </row>
-    <row r="463" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A463" s="2" t="s">
         <v>2666</v>
       </c>
@@ -33409,7 +33449,7 @@
         <v>2671</v>
       </c>
     </row>
-    <row r="464" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A464" s="2" t="s">
         <v>2672</v>
       </c>
@@ -33437,7 +33477,7 @@
         <v>2677</v>
       </c>
     </row>
-    <row r="465" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A465" s="2" t="s">
         <v>2678</v>
       </c>
@@ -33465,7 +33505,7 @@
         <v>2683</v>
       </c>
     </row>
-    <row r="466" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A466" s="2" t="s">
         <v>2684</v>
       </c>
@@ -33497,7 +33537,7 @@
         <v>2689</v>
       </c>
     </row>
-    <row r="467" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A467" s="2" t="s">
         <v>2690</v>
       </c>
@@ -33525,7 +33565,7 @@
         <v>2695</v>
       </c>
     </row>
-    <row r="468" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A468" s="2" t="s">
         <v>2696</v>
       </c>
@@ -33549,7 +33589,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="469" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A469" s="2" t="s">
         <v>2700</v>
       </c>
@@ -33573,7 +33613,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="470" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A470" s="2" t="s">
         <v>2706</v>
       </c>
@@ -33599,7 +33639,7 @@
         <v>2711</v>
       </c>
     </row>
-    <row r="471" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A471" s="2" t="s">
         <v>2712</v>
       </c>
@@ -33625,7 +33665,7 @@
         <v>2717</v>
       </c>
     </row>
-    <row r="472" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A472" s="2" t="s">
         <v>2718</v>
       </c>
@@ -33651,7 +33691,7 @@
         <v>2723</v>
       </c>
     </row>
-    <row r="473" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A473" s="2" t="s">
         <v>2724</v>
       </c>
@@ -33679,7 +33719,7 @@
         <v>2729</v>
       </c>
     </row>
-    <row r="474" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A474" s="2" t="s">
         <v>2730</v>
       </c>
@@ -33707,7 +33747,7 @@
         <v>2734</v>
       </c>
     </row>
-    <row r="475" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A475" s="2" t="s">
         <v>2735</v>
       </c>
@@ -33735,7 +33775,7 @@
         <v>2740</v>
       </c>
     </row>
-    <row r="476" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A476" s="2" t="s">
         <v>2741</v>
       </c>
@@ -33759,7 +33799,7 @@
         <v>2746</v>
       </c>
     </row>
-    <row r="477" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A477" s="2" t="s">
         <v>2747</v>
       </c>
@@ -33789,7 +33829,7 @@
         <v>2752</v>
       </c>
     </row>
-    <row r="478" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A478" s="2" t="s">
         <v>2753</v>
       </c>
@@ -33815,7 +33855,7 @@
         <v>2758</v>
       </c>
     </row>
-    <row r="479" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A479" s="2" t="s">
         <v>2759</v>
       </c>
@@ -33843,7 +33883,7 @@
         <v>2764</v>
       </c>
     </row>
-    <row r="480" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A480" s="2" t="s">
         <v>2765</v>
       </c>
@@ -33874,7 +33914,7 @@
       </c>
       <c r="K480" s="1"/>
     </row>
-    <row r="481" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A481" s="2" t="s">
         <v>2769</v>
       </c>
@@ -33904,7 +33944,7 @@
         <v>2772</v>
       </c>
     </row>
-    <row r="482" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A482" s="2" t="s">
         <v>2458</v>
       </c>
@@ -33932,7 +33972,7 @@
         <v>2777</v>
       </c>
     </row>
-    <row r="483" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A483" s="2" t="s">
         <v>2778</v>
       </c>
@@ -33958,7 +33998,7 @@
         <v>2783</v>
       </c>
     </row>
-    <row r="484" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A484" s="2" t="s">
         <v>2784</v>
       </c>
@@ -33986,7 +34026,7 @@
         <v>2789</v>
       </c>
     </row>
-    <row r="485" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A485" s="2" t="s">
         <v>2790</v>
       </c>
@@ -34012,7 +34052,7 @@
         <v>2795</v>
       </c>
     </row>
-    <row r="486" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A486" s="2" t="s">
         <v>2796</v>
       </c>
@@ -34036,7 +34076,7 @@
         <v>2801</v>
       </c>
     </row>
-    <row r="487" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A487" s="2" t="s">
         <v>2802</v>
       </c>
@@ -34062,7 +34102,7 @@
         <v>2807</v>
       </c>
     </row>
-    <row r="488" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A488" s="2" t="s">
         <v>2808</v>
       </c>
@@ -34090,7 +34130,7 @@
         <v>2813</v>
       </c>
     </row>
-    <row r="489" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A489" s="2" t="s">
         <v>2814</v>
       </c>
@@ -34118,7 +34158,7 @@
         <v>2819</v>
       </c>
     </row>
-    <row r="490" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A490" s="2" t="s">
         <v>2820</v>
       </c>
@@ -34142,7 +34182,7 @@
         <v>2825</v>
       </c>
     </row>
-    <row r="491" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A491" s="2" t="s">
         <v>2826</v>
       </c>
@@ -34168,7 +34208,7 @@
         <v>2827</v>
       </c>
     </row>
-    <row r="492" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A492" s="2" t="s">
         <v>2830</v>
       </c>
@@ -34196,7 +34236,7 @@
         <v>2835</v>
       </c>
     </row>
-    <row r="493" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A493" s="2" t="s">
         <v>2836</v>
       </c>
@@ -34226,7 +34266,7 @@
         <v>2841</v>
       </c>
     </row>
-    <row r="494" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A494" s="2" t="s">
         <v>2842</v>
       </c>
@@ -34254,7 +34294,7 @@
         <v>2847</v>
       </c>
     </row>
-    <row r="495" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A495" s="2" t="s">
         <v>2848</v>
       </c>
@@ -34286,7 +34326,7 @@
         <v>2853</v>
       </c>
     </row>
-    <row r="496" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A496" s="2" t="s">
         <v>2854</v>
       </c>
@@ -34312,7 +34352,7 @@
         <v>2859</v>
       </c>
     </row>
-    <row r="497" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A497" s="2" t="s">
         <v>2860</v>
       </c>
@@ -34338,7 +34378,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="498" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A498" s="2" t="s">
         <v>2865</v>
       </c>
@@ -34366,7 +34406,7 @@
         <v>2870</v>
       </c>
     </row>
-    <row r="499" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A499" s="2" t="s">
         <v>2871</v>
       </c>
@@ -34392,7 +34432,7 @@
         <v>2876</v>
       </c>
     </row>
-    <row r="500" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A500" s="2" t="s">
         <v>2877</v>
       </c>
@@ -34420,7 +34460,7 @@
         <v>2882</v>
       </c>
     </row>
-    <row r="501" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A501" s="2" t="s">
         <v>2883</v>
       </c>
@@ -34448,7 +34488,7 @@
         <v>2888</v>
       </c>
     </row>
-    <row r="502" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A502" s="2" t="s">
         <v>2889</v>
       </c>
@@ -34476,7 +34516,7 @@
         <v>2894</v>
       </c>
     </row>
-    <row r="503" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A503" s="2" t="s">
         <v>2895</v>
       </c>
@@ -34504,7 +34544,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="504" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A504" s="2" t="s">
         <v>2901</v>
       </c>
@@ -34528,7 +34568,7 @@
         <v>2906</v>
       </c>
     </row>
-    <row r="505" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A505" s="2" t="s">
         <v>2907</v>
       </c>
@@ -34558,7 +34598,7 @@
         <v>2912</v>
       </c>
     </row>
-    <row r="506" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A506" s="2" t="s">
         <v>2913</v>
       </c>
@@ -34588,7 +34628,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="507" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A507" s="2" t="s">
         <v>2919</v>
       </c>
@@ -34614,7 +34654,7 @@
         <v>2924</v>
       </c>
     </row>
-    <row r="508" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A508" s="2" t="s">
         <v>2925</v>
       </c>
@@ -34638,7 +34678,7 @@
         <v>2930</v>
       </c>
     </row>
-    <row r="509" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A509" s="2" t="s">
         <v>2931</v>
       </c>
@@ -34666,7 +34706,7 @@
         <v>2936</v>
       </c>
     </row>
-    <row r="510" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A510" s="2" t="s">
         <v>2937</v>
       </c>
@@ -34692,7 +34732,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="511" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A511" s="2" t="s">
         <v>2943</v>
       </c>
@@ -34720,7 +34760,7 @@
         <v>2948</v>
       </c>
     </row>
-    <row r="512" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A512" s="2" t="s">
         <v>2949</v>
       </c>
@@ -34750,7 +34790,7 @@
         <v>2953</v>
       </c>
     </row>
-    <row r="513" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A513" s="2" t="s">
         <v>2954</v>
       </c>
@@ -34774,7 +34814,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="514" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A514" s="2" t="s">
         <v>2960</v>
       </c>
@@ -34798,7 +34838,7 @@
         <v>2965</v>
       </c>
     </row>
-    <row r="515" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A515" s="2" t="s">
         <v>2966</v>
       </c>
@@ -34826,7 +34866,7 @@
         <v>2971</v>
       </c>
     </row>
-    <row r="516" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A516" s="2" t="s">
         <v>2972</v>
       </c>
@@ -34852,7 +34892,7 @@
         <v>2977</v>
       </c>
     </row>
-    <row r="517" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A517" s="2" t="s">
         <v>2972</v>
       </c>
@@ -34878,7 +34918,7 @@
         <v>2981</v>
       </c>
     </row>
-    <row r="518" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A518" s="2" t="s">
         <v>2982</v>
       </c>
@@ -34906,7 +34946,7 @@
         <v>2987</v>
       </c>
     </row>
-    <row r="519" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A519" s="2" t="s">
         <v>2988</v>
       </c>
@@ -34932,7 +34972,7 @@
         <v>2993</v>
       </c>
     </row>
-    <row r="520" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A520" s="2" t="s">
         <v>2994</v>
       </c>
@@ -34960,7 +35000,7 @@
         <v>2999</v>
       </c>
     </row>
-    <row r="521" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A521" s="2" t="s">
         <v>3000</v>
       </c>
@@ -34988,7 +35028,7 @@
         <v>3005</v>
       </c>
     </row>
-    <row r="522" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A522" s="2" t="s">
         <v>3006</v>
       </c>
@@ -35016,7 +35056,7 @@
         <v>3011</v>
       </c>
     </row>
-    <row r="523" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A523" s="2" t="s">
         <v>3012</v>
       </c>
@@ -35040,7 +35080,7 @@
         <v>3017</v>
       </c>
     </row>
-    <row r="524" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A524" s="2" t="s">
         <v>3018</v>
       </c>
@@ -35070,7 +35110,7 @@
         <v>3023</v>
       </c>
     </row>
-    <row r="525" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A525" s="2" t="s">
         <v>3024</v>
       </c>
@@ -35098,7 +35138,7 @@
         <v>3029</v>
       </c>
     </row>
-    <row r="526" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A526" s="2" t="s">
         <v>3030</v>
       </c>
@@ -35122,7 +35162,7 @@
         <v>3035</v>
       </c>
     </row>
-    <row r="527" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A527" s="2" t="s">
         <v>3036</v>
       </c>
@@ -35148,7 +35188,7 @@
         <v>3041</v>
       </c>
     </row>
-    <row r="528" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A528" s="2" t="s">
         <v>3042</v>
       </c>
@@ -35178,7 +35218,7 @@
         <v>3046</v>
       </c>
     </row>
-    <row r="529" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A529" s="2" t="s">
         <v>3047</v>
       </c>
@@ -35204,7 +35244,7 @@
         <v>3052</v>
       </c>
     </row>
-    <row r="530" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A530" s="2" t="s">
         <v>3053</v>
       </c>
@@ -35234,7 +35274,7 @@
         <v>3058</v>
       </c>
     </row>
-    <row r="531" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A531" s="2" t="s">
         <v>3059</v>
       </c>
@@ -35262,7 +35302,7 @@
         <v>3064</v>
       </c>
     </row>
-    <row r="532" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A532" s="2" t="s">
         <v>3065</v>
       </c>
@@ -35286,7 +35326,7 @@
         <v>3070</v>
       </c>
     </row>
-    <row r="533" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A533" s="2" t="s">
         <v>3071</v>
       </c>
@@ -35314,7 +35354,7 @@
         <v>3076</v>
       </c>
     </row>
-    <row r="534" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A534" s="2" t="s">
         <v>3077</v>
       </c>
@@ -35340,7 +35380,7 @@
         <v>3078</v>
       </c>
     </row>
-    <row r="535" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A535" s="2" t="s">
         <v>3081</v>
       </c>
@@ -35370,7 +35410,7 @@
         <v>3084</v>
       </c>
     </row>
-    <row r="536" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A536" s="2" t="s">
         <v>3085</v>
       </c>
@@ -35394,7 +35434,7 @@
         <v>3090</v>
       </c>
     </row>
-    <row r="537" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A537" s="2" t="s">
         <v>3091</v>
       </c>
@@ -35418,7 +35458,7 @@
         <v>3096</v>
       </c>
     </row>
-    <row r="538" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A538" s="2" t="s">
         <v>3097</v>
       </c>
@@ -35442,7 +35482,7 @@
         <v>3102</v>
       </c>
     </row>
-    <row r="539" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A539" s="2" t="s">
         <v>3103</v>
       </c>
@@ -35468,7 +35508,7 @@
         <v>3108</v>
       </c>
     </row>
-    <row r="540" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A540" s="2" t="s">
         <v>3109</v>
       </c>
@@ -35498,7 +35538,7 @@
         <v>3114</v>
       </c>
     </row>
-    <row r="541" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A541" s="2" t="s">
         <v>3115</v>
       </c>
@@ -35527,7 +35567,7 @@
         <v>6960</v>
       </c>
     </row>
-    <row r="542" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A542" s="2" t="s">
         <v>3121</v>
       </c>
@@ -35559,7 +35599,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="543" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A543" s="2" t="s">
         <v>3127</v>
       </c>
@@ -35587,7 +35627,7 @@
         <v>3132</v>
       </c>
     </row>
-    <row r="544" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A544" s="2" t="s">
         <v>3133</v>
       </c>
@@ -35611,7 +35651,7 @@
         <v>3138</v>
       </c>
     </row>
-    <row r="545" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A545" s="2" t="s">
         <v>3139</v>
       </c>
@@ -35639,7 +35679,7 @@
         <v>3144</v>
       </c>
     </row>
-    <row r="546" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A546" s="2" t="s">
         <v>3145</v>
       </c>
@@ -35667,7 +35707,7 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="547" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A547" s="2" t="s">
         <v>3151</v>
       </c>
@@ -35693,7 +35733,7 @@
         <v>3156</v>
       </c>
     </row>
-    <row r="548" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A548" s="2" t="s">
         <v>3157</v>
       </c>
@@ -35721,7 +35761,7 @@
         <v>3162</v>
       </c>
     </row>
-    <row r="549" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A549" s="2" t="s">
         <v>3163</v>
       </c>
@@ -35745,7 +35785,7 @@
         <v>3168</v>
       </c>
     </row>
-    <row r="550" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A550" s="2" t="s">
         <v>3169</v>
       </c>
@@ -35769,7 +35809,7 @@
         <v>3174</v>
       </c>
     </row>
-    <row r="551" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A551" s="2" t="s">
         <v>3175</v>
       </c>
@@ -35795,7 +35835,7 @@
         <v>3180</v>
       </c>
     </row>
-    <row r="552" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A552" s="2" t="s">
         <v>3181</v>
       </c>
@@ -35823,7 +35863,7 @@
         <v>3186</v>
       </c>
     </row>
-    <row r="553" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A553" s="2" t="s">
         <v>3187</v>
       </c>
@@ -35851,7 +35891,7 @@
         <v>3192</v>
       </c>
     </row>
-    <row r="554" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A554" s="2" t="s">
         <v>3193</v>
       </c>
@@ -35877,7 +35917,7 @@
         <v>3197</v>
       </c>
     </row>
-    <row r="555" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A555" s="2" t="s">
         <v>3198</v>
       </c>
@@ -35901,7 +35941,7 @@
         <v>3203</v>
       </c>
     </row>
-    <row r="556" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A556" s="2" t="s">
         <v>3204</v>
       </c>
@@ -35927,7 +35967,7 @@
         <v>3209</v>
       </c>
     </row>
-    <row r="557" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A557" s="2" t="s">
         <v>3210</v>
       </c>
@@ -35951,7 +35991,7 @@
         <v>3215</v>
       </c>
     </row>
-    <row r="558" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A558" s="2" t="s">
         <v>3216</v>
       </c>
@@ -35977,7 +36017,7 @@
         <v>3221</v>
       </c>
     </row>
-    <row r="559" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A559" s="2" t="s">
         <v>3222</v>
       </c>
@@ -36005,7 +36045,7 @@
         <v>3227</v>
       </c>
     </row>
-    <row r="560" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A560" s="2" t="s">
         <v>3228</v>
       </c>
@@ -36031,7 +36071,7 @@
         <v>3233</v>
       </c>
     </row>
-    <row r="561" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A561" s="2" t="s">
         <v>3234</v>
       </c>
@@ -36059,7 +36099,7 @@
         <v>3239</v>
       </c>
     </row>
-    <row r="562" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A562" s="2" t="s">
         <v>3240</v>
       </c>
@@ -36089,7 +36129,7 @@
         <v>3244</v>
       </c>
     </row>
-    <row r="563" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A563" s="2" t="s">
         <v>3245</v>
       </c>
@@ -36117,7 +36157,7 @@
         <v>3250</v>
       </c>
     </row>
-    <row r="564" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A564" s="2" t="s">
         <v>3251</v>
       </c>
@@ -36145,7 +36185,7 @@
         <v>3256</v>
       </c>
     </row>
-    <row r="565" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A565" s="2" t="s">
         <v>3257</v>
       </c>
@@ -36171,7 +36211,7 @@
         <v>3262</v>
       </c>
     </row>
-    <row r="566" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A566" s="2" t="s">
         <v>3263</v>
       </c>
@@ -36199,7 +36239,7 @@
         <v>3267</v>
       </c>
     </row>
-    <row r="567" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A567" s="2" t="s">
         <v>3268</v>
       </c>
@@ -36223,7 +36263,7 @@
         <v>3273</v>
       </c>
     </row>
-    <row r="568" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A568" s="2" t="s">
         <v>3274</v>
       </c>
@@ -36247,7 +36287,7 @@
         <v>3279</v>
       </c>
     </row>
-    <row r="569" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A569" s="2" t="s">
         <v>3280</v>
       </c>
@@ -36273,7 +36313,7 @@
         <v>3285</v>
       </c>
     </row>
-    <row r="570" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A570" s="2" t="s">
         <v>3286</v>
       </c>
@@ -36301,7 +36341,7 @@
         <v>3291</v>
       </c>
     </row>
-    <row r="571" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A571" s="2" t="s">
         <v>3292</v>
       </c>
@@ -36325,7 +36365,7 @@
         <v>3295</v>
       </c>
     </row>
-    <row r="572" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A572" s="2" t="s">
         <v>3296</v>
       </c>
@@ -36349,7 +36389,7 @@
         <v>3301</v>
       </c>
     </row>
-    <row r="573" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A573" s="2" t="s">
         <v>3302</v>
       </c>
@@ -36373,7 +36413,7 @@
         <v>3307</v>
       </c>
     </row>
-    <row r="574" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A574" s="2" t="s">
         <v>3308</v>
       </c>
@@ -36399,7 +36439,7 @@
         <v>3313</v>
       </c>
     </row>
-    <row r="575" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A575" s="2" t="s">
         <v>3314</v>
       </c>
@@ -36429,7 +36469,7 @@
         <v>3317</v>
       </c>
     </row>
-    <row r="576" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A576" s="2" t="s">
         <v>3318</v>
       </c>
@@ -36453,7 +36493,7 @@
         <v>3322</v>
       </c>
     </row>
-    <row r="577" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A577" s="2" t="s">
         <v>3323</v>
       </c>
@@ -36479,7 +36519,7 @@
         <v>3328</v>
       </c>
     </row>
-    <row r="578" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A578" s="2" t="s">
         <v>3329</v>
       </c>
@@ -36507,7 +36547,7 @@
         <v>3334</v>
       </c>
     </row>
-    <row r="579" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A579" s="2" t="s">
         <v>3335</v>
       </c>
@@ -36533,7 +36573,7 @@
         <v>3340</v>
       </c>
     </row>
-    <row r="580" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A580" s="2" t="s">
         <v>3341</v>
       </c>
@@ -36557,7 +36597,7 @@
         <v>3346</v>
       </c>
     </row>
-    <row r="581" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A581" s="2" t="s">
         <v>3347</v>
       </c>
@@ -36585,7 +36625,7 @@
         <v>3352</v>
       </c>
     </row>
-    <row r="582" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A582" s="2" t="s">
         <v>3353</v>
       </c>
@@ -36611,7 +36651,7 @@
         <v>3358</v>
       </c>
     </row>
-    <row r="583" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A583" s="2" t="s">
         <v>3359</v>
       </c>
@@ -36637,7 +36677,7 @@
         <v>3364</v>
       </c>
     </row>
-    <row r="584" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A584" s="2" t="s">
         <v>3365</v>
       </c>
@@ -36663,7 +36703,7 @@
         <v>3370</v>
       </c>
     </row>
-    <row r="585" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A585" s="2" t="s">
         <v>3371</v>
       </c>
@@ -36689,7 +36729,7 @@
         <v>3376</v>
       </c>
     </row>
-    <row r="586" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A586" s="2" t="s">
         <v>3377</v>
       </c>
@@ -36715,7 +36755,7 @@
         <v>3382</v>
       </c>
     </row>
-    <row r="587" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A587" s="2" t="s">
         <v>3383</v>
       </c>
@@ -36739,7 +36779,7 @@
         <v>3388</v>
       </c>
     </row>
-    <row r="588" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A588" s="2" t="s">
         <v>3389</v>
       </c>
@@ -36763,7 +36803,7 @@
         <v>3394</v>
       </c>
     </row>
-    <row r="589" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A589" s="2" t="s">
         <v>3395</v>
       </c>
@@ -36787,7 +36827,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="590" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A590" s="2" t="s">
         <v>3401</v>
       </c>
@@ -36815,7 +36855,7 @@
         <v>3406</v>
       </c>
     </row>
-    <row r="591" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A591" s="2" t="s">
         <v>3407</v>
       </c>
@@ -36843,7 +36883,7 @@
         <v>3412</v>
       </c>
     </row>
-    <row r="592" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A592" s="2" t="s">
         <v>3413</v>
       </c>
@@ -36871,7 +36911,7 @@
         <v>3418</v>
       </c>
     </row>
-    <row r="593" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A593" s="2" t="s">
         <v>3419</v>
       </c>
@@ -36899,7 +36939,7 @@
         <v>3424</v>
       </c>
     </row>
-    <row r="594" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A594" s="2" t="s">
         <v>3425</v>
       </c>
@@ -36923,7 +36963,7 @@
         <v>3430</v>
       </c>
     </row>
-    <row r="595" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A595" s="2" t="s">
         <v>3431</v>
       </c>
@@ -36951,7 +36991,7 @@
         <v>3436</v>
       </c>
     </row>
-    <row r="596" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A596" s="2" t="s">
         <v>3437</v>
       </c>
@@ -36975,7 +37015,7 @@
         <v>3442</v>
       </c>
     </row>
-    <row r="597" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A597" s="2" t="s">
         <v>3443</v>
       </c>
@@ -37003,7 +37043,7 @@
         <v>3448</v>
       </c>
     </row>
-    <row r="598" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A598" s="2" t="s">
         <v>3449</v>
       </c>
@@ -37029,7 +37069,7 @@
         <v>3454</v>
       </c>
     </row>
-    <row r="599" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A599" s="2" t="s">
         <v>3455</v>
       </c>
@@ -37053,7 +37093,7 @@
         <v>3459</v>
       </c>
     </row>
-    <row r="600" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A600" s="2" t="s">
         <v>3460</v>
       </c>
@@ -37077,7 +37117,7 @@
         <v>3465</v>
       </c>
     </row>
-    <row r="601" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A601" s="2" t="s">
         <v>3466</v>
       </c>
@@ -37101,7 +37141,7 @@
         <v>3471</v>
       </c>
     </row>
-    <row r="602" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A602" s="2" t="s">
         <v>3472</v>
       </c>
@@ -37127,7 +37167,7 @@
         <v>3477</v>
       </c>
     </row>
-    <row r="603" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A603" s="2" t="s">
         <v>3478</v>
       </c>
@@ -37157,7 +37197,7 @@
         <v>3483</v>
       </c>
     </row>
-    <row r="604" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A604" s="2" t="s">
         <v>3484</v>
       </c>
@@ -37185,7 +37225,7 @@
         <v>3485</v>
       </c>
     </row>
-    <row r="605" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A605" s="2" t="s">
         <v>3488</v>
       </c>
@@ -37211,7 +37251,7 @@
         <v>3491</v>
       </c>
     </row>
-    <row r="606" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A606" s="2" t="s">
         <v>3492</v>
       </c>
@@ -37243,7 +37283,7 @@
         <v>3497</v>
       </c>
     </row>
-    <row r="607" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A607" s="2" t="s">
         <v>3492</v>
       </c>
@@ -37271,7 +37311,7 @@
         <v>3501</v>
       </c>
     </row>
-    <row r="608" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A608" s="2" t="s">
         <v>3502</v>
       </c>
@@ -37301,7 +37341,7 @@
         <v>3507</v>
       </c>
     </row>
-    <row r="609" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A609" s="2" t="s">
         <v>3508</v>
       </c>
@@ -37327,7 +37367,7 @@
         <v>3512</v>
       </c>
     </row>
-    <row r="610" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A610" s="2" t="s">
         <v>3513</v>
       </c>
@@ -37351,7 +37391,7 @@
         <v>3517</v>
       </c>
     </row>
-    <row r="611" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A611" s="2" t="s">
         <v>923</v>
       </c>
@@ -37381,7 +37421,7 @@
         <v>3522</v>
       </c>
     </row>
-    <row r="612" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A612" s="2" t="s">
         <v>3523</v>
       </c>
@@ -37405,7 +37445,7 @@
         <v>3528</v>
       </c>
     </row>
-    <row r="613" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A613" s="2" t="s">
         <v>3529</v>
       </c>
@@ -37437,7 +37477,7 @@
         <v>3534</v>
       </c>
     </row>
-    <row r="614" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A614" s="2" t="s">
         <v>3535</v>
       </c>
@@ -37467,7 +37507,7 @@
         <v>3540</v>
       </c>
     </row>
-    <row r="615" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A615" s="2" t="s">
         <v>3541</v>
       </c>
@@ -37495,7 +37535,7 @@
         <v>3546</v>
       </c>
     </row>
-    <row r="616" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A616" s="2" t="s">
         <v>3547</v>
       </c>
@@ -37523,7 +37563,7 @@
         <v>3552</v>
       </c>
     </row>
-    <row r="617" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A617" s="2" t="s">
         <v>3553</v>
       </c>
@@ -37551,7 +37591,7 @@
         <v>3558</v>
       </c>
     </row>
-    <row r="618" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A618" s="2" t="s">
         <v>3559</v>
       </c>
@@ -37579,7 +37619,7 @@
         <v>3562</v>
       </c>
     </row>
-    <row r="619" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A619" s="2" t="s">
         <v>3563</v>
       </c>
@@ -37605,7 +37645,7 @@
         <v>3568</v>
       </c>
     </row>
-    <row r="620" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A620" s="2" t="s">
         <v>3569</v>
       </c>
@@ -37633,7 +37673,7 @@
         <v>3574</v>
       </c>
     </row>
-    <row r="621" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A621" s="2" t="s">
         <v>3575</v>
       </c>
@@ -37657,7 +37697,7 @@
         <v>3580</v>
       </c>
     </row>
-    <row r="622" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A622" s="2" t="s">
         <v>3581</v>
       </c>
@@ -37685,7 +37725,7 @@
         <v>3586</v>
       </c>
     </row>
-    <row r="623" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A623" s="2" t="s">
         <v>3587</v>
       </c>
@@ -37711,7 +37751,7 @@
         <v>3592</v>
       </c>
     </row>
-    <row r="624" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A624" s="2" t="s">
         <v>3593</v>
       </c>
@@ -37737,7 +37777,7 @@
         <v>3597</v>
       </c>
     </row>
-    <row r="625" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A625" s="2" t="s">
         <v>3598</v>
       </c>
@@ -37761,7 +37801,7 @@
         <v>3603</v>
       </c>
     </row>
-    <row r="626" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A626" s="2" t="s">
         <v>3604</v>
       </c>
@@ -37787,7 +37827,7 @@
         <v>3609</v>
       </c>
     </row>
-    <row r="627" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A627" s="2" t="s">
         <v>3610</v>
       </c>
@@ -37815,7 +37855,7 @@
         <v>3615</v>
       </c>
     </row>
-    <row r="628" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A628" s="2" t="s">
         <v>3616</v>
       </c>
@@ -37843,7 +37883,7 @@
         <v>3621</v>
       </c>
     </row>
-    <row r="629" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A629" s="2" t="s">
         <v>3622</v>
       </c>
@@ -37871,7 +37911,7 @@
         <v>3626</v>
       </c>
     </row>
-    <row r="630" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A630" s="2" t="s">
         <v>3627</v>
       </c>
@@ -37899,7 +37939,7 @@
         <v>3632</v>
       </c>
     </row>
-    <row r="631" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A631" s="2" t="s">
         <v>3627</v>
       </c>
@@ -37931,7 +37971,7 @@
         <v>3636</v>
       </c>
     </row>
-    <row r="632" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A632" s="2" t="s">
         <v>3637</v>
       </c>
@@ -37957,7 +37997,7 @@
         <v>3642</v>
       </c>
     </row>
-    <row r="633" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A633" s="2" t="s">
         <v>3643</v>
       </c>
@@ -37983,7 +38023,7 @@
         <v>3648</v>
       </c>
     </row>
-    <row r="634" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A634" s="2" t="s">
         <v>3649</v>
       </c>
@@ -38011,7 +38051,7 @@
         <v>3652</v>
       </c>
     </row>
-    <row r="635" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A635" s="2" t="s">
         <v>3653</v>
       </c>
@@ -38035,7 +38075,7 @@
         <v>3658</v>
       </c>
     </row>
-    <row r="636" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A636" s="2" t="s">
         <v>3659</v>
       </c>
@@ -38061,7 +38101,7 @@
         <v>3664</v>
       </c>
     </row>
-    <row r="637" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A637" s="2" t="s">
         <v>3665</v>
       </c>
@@ -38087,7 +38127,7 @@
         <v>3670</v>
       </c>
     </row>
-    <row r="638" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A638" s="2" t="s">
         <v>3671</v>
       </c>
@@ -38111,7 +38151,7 @@
         <v>3676</v>
       </c>
     </row>
-    <row r="639" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A639" s="2" t="s">
         <v>3677</v>
       </c>
@@ -38137,7 +38177,7 @@
         <v>3682</v>
       </c>
     </row>
-    <row r="640" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A640" s="2" t="s">
         <v>3683</v>
       </c>
@@ -38163,7 +38203,7 @@
         <v>3688</v>
       </c>
     </row>
-    <row r="641" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A641" s="2" t="s">
         <v>3689</v>
       </c>
@@ -38187,7 +38227,7 @@
         <v>3694</v>
       </c>
     </row>
-    <row r="642" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A642" s="2" t="s">
         <v>3695</v>
       </c>
@@ -38213,7 +38253,7 @@
         <v>3700</v>
       </c>
     </row>
-    <row r="643" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A643" s="2" t="s">
         <v>3701</v>
       </c>
@@ -38239,7 +38279,7 @@
         <v>3706</v>
       </c>
     </row>
-    <row r="644" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A644" s="2" t="s">
         <v>3707</v>
       </c>
@@ -38263,7 +38303,7 @@
         <v>3712</v>
       </c>
     </row>
-    <row r="645" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A645" s="2" t="s">
         <v>3713</v>
       </c>
@@ -38289,7 +38329,7 @@
         <v>3717</v>
       </c>
     </row>
-    <row r="646" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A646" s="2" t="s">
         <v>3718</v>
       </c>
@@ -38317,7 +38357,7 @@
         <v>3723</v>
       </c>
     </row>
-    <row r="647" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A647" s="2" t="s">
         <v>3724</v>
       </c>
@@ -38343,7 +38383,7 @@
         <v>3729</v>
       </c>
     </row>
-    <row r="648" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A648" s="2" t="s">
         <v>3730</v>
       </c>
@@ -38367,7 +38407,7 @@
         <v>3735</v>
       </c>
     </row>
-    <row r="649" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A649" s="2" t="s">
         <v>2602</v>
       </c>
@@ -38395,7 +38435,7 @@
         <v>3740</v>
       </c>
     </row>
-    <row r="650" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A650" s="2" t="s">
         <v>3741</v>
       </c>
@@ -38423,7 +38463,7 @@
         <v>3744</v>
       </c>
     </row>
-    <row r="651" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A651" s="2" t="s">
         <v>3745</v>
       </c>
@@ -38447,7 +38487,7 @@
         <v>3750</v>
       </c>
     </row>
-    <row r="652" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A652" s="2" t="s">
         <v>3751</v>
       </c>
@@ -38473,7 +38513,7 @@
         <v>3756</v>
       </c>
     </row>
-    <row r="653" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A653" s="2" t="s">
         <v>3757</v>
       </c>
@@ -38499,7 +38539,7 @@
         <v>3762</v>
       </c>
     </row>
-    <row r="654" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A654" s="2" t="s">
         <v>3763</v>
       </c>
@@ -38525,7 +38565,7 @@
         <v>3768</v>
       </c>
     </row>
-    <row r="655" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A655" s="2" t="s">
         <v>3769</v>
       </c>
@@ -38551,7 +38591,7 @@
         <v>3774</v>
       </c>
     </row>
-    <row r="656" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A656" s="2" t="s">
         <v>3775</v>
       </c>
@@ -38575,7 +38615,7 @@
         <v>3780</v>
       </c>
     </row>
-    <row r="657" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A657" s="2" t="s">
         <v>3781</v>
       </c>
@@ -38599,7 +38639,7 @@
         <v>3786</v>
       </c>
     </row>
-    <row r="658" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A658" s="2" t="s">
         <v>3787</v>
       </c>
@@ -38623,7 +38663,7 @@
         <v>3792</v>
       </c>
     </row>
-    <row r="659" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A659" s="2" t="s">
         <v>3793</v>
       </c>
@@ -38647,7 +38687,7 @@
         <v>3798</v>
       </c>
     </row>
-    <row r="660" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A660" s="2" t="s">
         <v>3799</v>
       </c>
@@ -38675,7 +38715,7 @@
         <v>3804</v>
       </c>
     </row>
-    <row r="661" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A661" s="2" t="s">
         <v>3805</v>
       </c>
@@ -38699,7 +38739,7 @@
         <v>3810</v>
       </c>
     </row>
-    <row r="662" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A662" s="2" t="s">
         <v>3811</v>
       </c>
@@ -38727,7 +38767,7 @@
         <v>3816</v>
       </c>
     </row>
-    <row r="663" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A663" s="2" t="s">
         <v>3817</v>
       </c>
@@ -38755,7 +38795,7 @@
         <v>3822</v>
       </c>
     </row>
-    <row r="664" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A664" s="2" t="s">
         <v>3823</v>
       </c>
@@ -38783,7 +38823,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="665" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A665" s="2" t="s">
         <v>3829</v>
       </c>
@@ -38815,7 +38855,7 @@
         <v>3834</v>
       </c>
     </row>
-    <row r="666" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A666" s="2" t="s">
         <v>3835</v>
       </c>
@@ -38839,7 +38879,7 @@
         <v>3840</v>
       </c>
     </row>
-    <row r="667" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A667" s="2" t="s">
         <v>3841</v>
       </c>
@@ -38863,7 +38903,7 @@
         <v>3846</v>
       </c>
     </row>
-    <row r="668" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A668" s="2" t="s">
         <v>3847</v>
       </c>
@@ -38887,7 +38927,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="669" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A669" s="2" t="s">
         <v>3853</v>
       </c>
@@ -38917,7 +38957,7 @@
         <v>3858</v>
       </c>
     </row>
-    <row r="670" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A670" s="2" t="s">
         <v>3859</v>
       </c>
@@ -38943,7 +38983,7 @@
         <v>3863</v>
       </c>
     </row>
-    <row r="671" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A671" s="2" t="s">
         <v>3864</v>
       </c>
@@ -38971,7 +39011,7 @@
         <v>3868</v>
       </c>
     </row>
-    <row r="672" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A672" s="2" t="s">
         <v>3869</v>
       </c>
@@ -38999,7 +39039,7 @@
         <v>3870</v>
       </c>
     </row>
-    <row r="673" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A673" s="2" t="s">
         <v>3873</v>
       </c>
@@ -39025,7 +39065,7 @@
         <v>3878</v>
       </c>
     </row>
-    <row r="674" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A674" s="2" t="s">
         <v>3879</v>
       </c>
@@ -39055,7 +39095,7 @@
         <v>3883</v>
       </c>
     </row>
-    <row r="675" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A675" s="2" t="s">
         <v>3884</v>
       </c>
@@ -39079,7 +39119,7 @@
         <v>3889</v>
       </c>
     </row>
-    <row r="676" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A676" s="2" t="s">
         <v>3890</v>
       </c>
@@ -39105,7 +39145,7 @@
         <v>3895</v>
       </c>
     </row>
-    <row r="677" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A677" s="2" t="s">
         <v>3896</v>
       </c>
@@ -39135,7 +39175,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="678" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A678" s="2" t="s">
         <v>3901</v>
       </c>
@@ -39165,7 +39205,7 @@
         <v>3906</v>
       </c>
     </row>
-    <row r="679" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A679" s="2" t="s">
         <v>3907</v>
       </c>
@@ -39189,7 +39229,7 @@
         <v>3912</v>
       </c>
     </row>
-    <row r="680" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A680" s="2" t="s">
         <v>3913</v>
       </c>
@@ -39213,7 +39253,7 @@
         <v>3918</v>
       </c>
     </row>
-    <row r="681" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A681" s="2" t="s">
         <v>3919</v>
       </c>
@@ -39241,7 +39281,7 @@
         <v>3924</v>
       </c>
     </row>
-    <row r="682" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A682" s="2" t="s">
         <v>3925</v>
       </c>
@@ -39265,7 +39305,7 @@
         <v>3930</v>
       </c>
     </row>
-    <row r="683" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A683" s="2" t="s">
         <v>3931</v>
       </c>
@@ -39293,7 +39333,7 @@
         <v>3936</v>
       </c>
     </row>
-    <row r="684" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A684" s="2" t="s">
         <v>3937</v>
       </c>
@@ -39319,7 +39359,7 @@
         <v>3942</v>
       </c>
     </row>
-    <row r="685" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A685" s="2" t="s">
         <v>3943</v>
       </c>
@@ -39345,7 +39385,7 @@
         <v>3948</v>
       </c>
     </row>
-    <row r="686" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A686" s="2" t="s">
         <v>3949</v>
       </c>
@@ -39371,7 +39411,7 @@
         <v>3954</v>
       </c>
     </row>
-    <row r="687" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A687" s="2" t="s">
         <v>3955</v>
       </c>
@@ -39399,7 +39439,7 @@
         <v>3960</v>
       </c>
     </row>
-    <row r="688" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A688" s="2" t="s">
         <v>3961</v>
       </c>
@@ -39425,7 +39465,7 @@
         <v>3966</v>
       </c>
     </row>
-    <row r="689" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A689" s="2" t="s">
         <v>3967</v>
       </c>
@@ -39453,7 +39493,7 @@
         <v>3972</v>
       </c>
     </row>
-    <row r="690" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A690" s="2" t="s">
         <v>3973</v>
       </c>
@@ -39483,7 +39523,7 @@
         <v>3978</v>
       </c>
     </row>
-    <row r="691" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A691" s="2" t="s">
         <v>3979</v>
       </c>
@@ -39507,7 +39547,7 @@
         <v>3984</v>
       </c>
     </row>
-    <row r="692" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A692" s="2" t="s">
         <v>3985</v>
       </c>
@@ -39533,7 +39573,7 @@
         <v>3990</v>
       </c>
     </row>
-    <row r="693" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A693" s="2" t="s">
         <v>3991</v>
       </c>
@@ -39557,7 +39597,7 @@
         <v>3996</v>
       </c>
     </row>
-    <row r="694" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A694" s="2" t="s">
         <v>3997</v>
       </c>
@@ -39585,7 +39625,7 @@
         <v>4002</v>
       </c>
     </row>
-    <row r="695" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A695" s="2" t="s">
         <v>4003</v>
       </c>
@@ -39611,7 +39651,7 @@
         <v>4008</v>
       </c>
     </row>
-    <row r="696" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A696" s="2" t="s">
         <v>4009</v>
       </c>
@@ -39639,7 +39679,7 @@
         <v>4014</v>
       </c>
     </row>
-    <row r="697" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A697" s="2" t="s">
         <v>4015</v>
       </c>
@@ -39665,7 +39705,7 @@
         <v>4020</v>
       </c>
     </row>
-    <row r="698" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A698" s="2" t="s">
         <v>4021</v>
       </c>
@@ -39691,7 +39731,7 @@
         <v>4026</v>
       </c>
     </row>
-    <row r="699" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A699" s="2" t="s">
         <v>4027</v>
       </c>
@@ -39719,7 +39759,7 @@
         <v>4031</v>
       </c>
     </row>
-    <row r="700" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A700" s="2" t="s">
         <v>4032</v>
       </c>
@@ -39743,7 +39783,7 @@
         <v>4037</v>
       </c>
     </row>
-    <row r="701" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A701" s="2" t="s">
         <v>4038</v>
       </c>
@@ -39771,7 +39811,7 @@
         <v>4043</v>
       </c>
     </row>
-    <row r="702" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A702" s="2" t="s">
         <v>4044</v>
       </c>
@@ -39799,7 +39839,7 @@
         <v>4049</v>
       </c>
     </row>
-    <row r="703" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A703" s="2" t="s">
         <v>4050</v>
       </c>
@@ -39829,7 +39869,7 @@
         <v>4055</v>
       </c>
     </row>
-    <row r="704" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A704" s="2" t="s">
         <v>4056</v>
       </c>
@@ -39857,7 +39897,7 @@
         <v>4061</v>
       </c>
     </row>
-    <row r="705" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A705" s="2" t="s">
         <v>4062</v>
       </c>
@@ -39883,7 +39923,7 @@
         <v>4065</v>
       </c>
     </row>
-    <row r="706" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A706" s="2" t="s">
         <v>4066</v>
       </c>
@@ -39909,7 +39949,7 @@
         <v>4070</v>
       </c>
     </row>
-    <row r="707" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A707" s="2" t="s">
         <v>4071</v>
       </c>
@@ -39933,7 +39973,7 @@
         <v>4076</v>
       </c>
     </row>
-    <row r="708" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A708" s="2" t="s">
         <v>4077</v>
       </c>
@@ -39963,7 +40003,7 @@
         <v>4082</v>
       </c>
     </row>
-    <row r="709" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A709" s="2" t="s">
         <v>4083</v>
       </c>
@@ -39989,7 +40029,7 @@
         <v>4088</v>
       </c>
     </row>
-    <row r="710" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A710" s="2" t="s">
         <v>4089</v>
       </c>
@@ -40017,7 +40057,7 @@
         <v>4094</v>
       </c>
     </row>
-    <row r="711" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A711" s="2" t="s">
         <v>4095</v>
       </c>
@@ -40045,7 +40085,7 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="712" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A712" s="2" t="s">
         <v>4101</v>
       </c>
@@ -40071,7 +40111,7 @@
         <v>4106</v>
       </c>
     </row>
-    <row r="713" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A713" s="2" t="s">
         <v>4107</v>
       </c>
@@ -40097,7 +40137,7 @@
         <v>4112</v>
       </c>
     </row>
-    <row r="714" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A714" s="2" t="s">
         <v>4113</v>
       </c>
@@ -40125,7 +40165,7 @@
         <v>4118</v>
       </c>
     </row>
-    <row r="715" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A715" s="2" t="s">
         <v>4119</v>
       </c>
@@ -40151,7 +40191,7 @@
         <v>4124</v>
       </c>
     </row>
-    <row r="716" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A716" s="2" t="s">
         <v>4125</v>
       </c>
@@ -40177,7 +40217,7 @@
         <v>4130</v>
       </c>
     </row>
-    <row r="717" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A717" s="2" t="s">
         <v>4131</v>
       </c>
@@ -40203,7 +40243,7 @@
         <v>4136</v>
       </c>
     </row>
-    <row r="718" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A718" s="2" t="s">
         <v>4137</v>
       </c>
@@ -40229,7 +40269,7 @@
         <v>4142</v>
       </c>
     </row>
-    <row r="719" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A719" s="2" t="s">
         <v>4143</v>
       </c>
@@ -40262,7 +40302,7 @@
         <v>6966</v>
       </c>
     </row>
-    <row r="720" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A720" s="2" t="s">
         <v>4149</v>
       </c>
@@ -40286,7 +40326,7 @@
         <v>4154</v>
       </c>
     </row>
-    <row r="721" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A721" s="2" t="s">
         <v>4155</v>
       </c>
@@ -40314,7 +40354,7 @@
         <v>4160</v>
       </c>
     </row>
-    <row r="722" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A722" s="2" t="s">
         <v>4161</v>
       </c>
@@ -40340,7 +40380,7 @@
         <v>4165</v>
       </c>
     </row>
-    <row r="723" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A723" s="2" t="s">
         <v>4166</v>
       </c>
@@ -40366,7 +40406,7 @@
         <v>4169</v>
       </c>
     </row>
-    <row r="724" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A724" s="2" t="s">
         <v>4170</v>
       </c>
@@ -40392,7 +40432,7 @@
         <v>4175</v>
       </c>
     </row>
-    <row r="725" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A725" s="2" t="s">
         <v>4176</v>
       </c>
@@ -40420,7 +40460,7 @@
         <v>4179</v>
       </c>
     </row>
-    <row r="726" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A726" s="2" t="s">
         <v>591</v>
       </c>
@@ -40444,7 +40484,7 @@
         <v>4183</v>
       </c>
     </row>
-    <row r="727" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A727" s="2" t="s">
         <v>4184</v>
       </c>
@@ -40474,7 +40514,7 @@
         <v>4188</v>
       </c>
     </row>
-    <row r="728" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A728" s="2" t="s">
         <v>4189</v>
       </c>
@@ -40498,7 +40538,7 @@
         <v>4190</v>
       </c>
     </row>
-    <row r="729" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A729" s="2" t="s">
         <v>4193</v>
       </c>
@@ -40524,7 +40564,7 @@
         <v>4198</v>
       </c>
     </row>
-    <row r="730" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A730" s="2" t="s">
         <v>4199</v>
       </c>
@@ -40548,7 +40588,7 @@
         <v>4204</v>
       </c>
     </row>
-    <row r="731" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A731" s="2" t="s">
         <v>4205</v>
       </c>
@@ -40578,7 +40618,7 @@
         <v>4209</v>
       </c>
     </row>
-    <row r="732" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A732" s="2" t="s">
         <v>4210</v>
       </c>
@@ -40606,7 +40646,7 @@
         <v>4215</v>
       </c>
     </row>
-    <row r="733" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A733" s="2" t="s">
         <v>4216</v>
       </c>
@@ -40630,7 +40670,7 @@
         <v>4221</v>
       </c>
     </row>
-    <row r="734" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A734" s="2" t="s">
         <v>4222</v>
       </c>
@@ -40658,7 +40698,7 @@
         <v>4227</v>
       </c>
     </row>
-    <row r="735" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A735" s="2" t="s">
         <v>4228</v>
       </c>
@@ -40684,7 +40724,7 @@
         <v>4233</v>
       </c>
     </row>
-    <row r="736" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A736" s="2" t="s">
         <v>4234</v>
       </c>
@@ -40710,7 +40750,7 @@
         <v>4239</v>
       </c>
     </row>
-    <row r="737" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A737" s="2" t="s">
         <v>4240</v>
       </c>
@@ -40734,7 +40774,7 @@
         <v>4245</v>
       </c>
     </row>
-    <row r="738" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A738" s="2" t="s">
         <v>4246</v>
       </c>
@@ -40758,7 +40798,7 @@
         <v>4251</v>
       </c>
     </row>
-    <row r="739" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A739" s="2" t="s">
         <v>4252</v>
       </c>
@@ -40784,7 +40824,7 @@
         <v>4257</v>
       </c>
     </row>
-    <row r="740" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A740" s="2" t="s">
         <v>4258</v>
       </c>
@@ -40808,7 +40848,7 @@
         <v>4263</v>
       </c>
     </row>
-    <row r="741" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A741" s="2" t="s">
         <v>4264</v>
       </c>
@@ -40834,7 +40874,7 @@
         <v>4268</v>
       </c>
     </row>
-    <row r="742" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A742" s="2" t="s">
         <v>4269</v>
       </c>
@@ -40862,7 +40902,7 @@
         <v>4274</v>
       </c>
     </row>
-    <row r="743" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A743" s="2" t="s">
         <v>4275</v>
       </c>
@@ -40892,7 +40932,7 @@
         <v>4280</v>
       </c>
     </row>
-    <row r="744" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A744" s="2" t="s">
         <v>4281</v>
       </c>
@@ -40922,7 +40962,7 @@
         <v>4286</v>
       </c>
     </row>
-    <row r="745" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A745" s="2" t="s">
         <v>4287</v>
       </c>
@@ -40948,7 +40988,7 @@
         <v>4292</v>
       </c>
     </row>
-    <row r="746" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A746" s="2" t="s">
         <v>4293</v>
       </c>
@@ -40978,7 +41018,7 @@
         <v>4298</v>
       </c>
     </row>
-    <row r="747" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A747" s="2" t="s">
         <v>4299</v>
       </c>
@@ -41006,7 +41046,7 @@
         <v>4304</v>
       </c>
     </row>
-    <row r="748" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A748" s="2" t="s">
         <v>4305</v>
       </c>
@@ -41032,7 +41072,7 @@
         <v>4310</v>
       </c>
     </row>
-    <row r="749" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A749" s="2" t="s">
         <v>4311</v>
       </c>
@@ -41058,7 +41098,7 @@
         <v>4316</v>
       </c>
     </row>
-    <row r="750" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A750" s="2" t="s">
         <v>4317</v>
       </c>
@@ -41086,7 +41126,7 @@
         <v>4320</v>
       </c>
     </row>
-    <row r="751" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A751" s="2" t="s">
         <v>4321</v>
       </c>
@@ -41110,7 +41150,7 @@
         <v>4326</v>
       </c>
     </row>
-    <row r="752" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A752" s="2" t="s">
         <v>4327</v>
       </c>
@@ -41138,7 +41178,7 @@
         <v>4331</v>
       </c>
     </row>
-    <row r="753" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A753" s="2" t="s">
         <v>4332</v>
       </c>
@@ -41164,7 +41204,7 @@
         <v>4337</v>
       </c>
     </row>
-    <row r="754" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A754" s="2" t="s">
         <v>4338</v>
       </c>
@@ -41192,7 +41232,7 @@
         <v>4339</v>
       </c>
     </row>
-    <row r="755" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A755" s="2" t="s">
         <v>4343</v>
       </c>
@@ -41216,7 +41256,7 @@
         <v>4348</v>
       </c>
     </row>
-    <row r="756" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A756" s="2" t="s">
         <v>4349</v>
       </c>
@@ -41242,7 +41282,7 @@
         <v>4354</v>
       </c>
     </row>
-    <row r="757" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A757" s="2" t="s">
         <v>4355</v>
       </c>
@@ -41270,7 +41310,7 @@
         <v>4360</v>
       </c>
     </row>
-    <row r="758" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A758" s="2" t="s">
         <v>4361</v>
       </c>
@@ -41296,7 +41336,7 @@
         <v>4366</v>
       </c>
     </row>
-    <row r="759" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A759" s="2" t="s">
         <v>4367</v>
       </c>
@@ -41322,7 +41362,7 @@
         <v>4372</v>
       </c>
     </row>
-    <row r="760" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A760" s="2" t="s">
         <v>4373</v>
       </c>
@@ -41350,7 +41390,7 @@
         <v>4378</v>
       </c>
     </row>
-    <row r="761" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A761" s="2" t="s">
         <v>4379</v>
       </c>
@@ -41376,7 +41416,7 @@
         <v>4384</v>
       </c>
     </row>
-    <row r="762" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A762" s="2" t="s">
         <v>4385</v>
       </c>
@@ -41400,7 +41440,7 @@
         <v>4388</v>
       </c>
     </row>
-    <row r="763" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A763" s="2" t="s">
         <v>4389</v>
       </c>
@@ -41426,7 +41466,7 @@
         <v>4394</v>
       </c>
     </row>
-    <row r="764" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A764" s="2" t="s">
         <v>4389</v>
       </c>
@@ -41456,7 +41496,7 @@
         <v>4398</v>
       </c>
     </row>
-    <row r="765" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A765" s="2" t="s">
         <v>4399</v>
       </c>
@@ -41486,7 +41526,7 @@
         <v>4402</v>
       </c>
     </row>
-    <row r="766" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A766" s="2" t="s">
         <v>4403</v>
       </c>
@@ -41514,7 +41554,7 @@
         <v>4408</v>
       </c>
     </row>
-    <row r="767" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A767" s="2" t="s">
         <v>4409</v>
       </c>
@@ -41544,7 +41584,7 @@
         <v>4414</v>
       </c>
     </row>
-    <row r="768" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A768" s="2" t="s">
         <v>4415</v>
       </c>
@@ -41570,7 +41610,7 @@
         <v>4420</v>
       </c>
     </row>
-    <row r="769" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A769" s="2" t="s">
         <v>4421</v>
       </c>
@@ -41594,7 +41634,7 @@
         <v>4426</v>
       </c>
     </row>
-    <row r="770" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A770" s="2" t="s">
         <v>4427</v>
       </c>
@@ -41618,7 +41658,7 @@
         <v>4432</v>
       </c>
     </row>
-    <row r="771" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A771" s="2" t="s">
         <v>4433</v>
       </c>
@@ -41646,7 +41686,7 @@
         <v>4438</v>
       </c>
     </row>
-    <row r="772" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A772" s="2" t="s">
         <v>4439</v>
       </c>
@@ -41676,7 +41716,7 @@
         <v>4444</v>
       </c>
     </row>
-    <row r="773" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A773" s="2" t="s">
         <v>4445</v>
       </c>
@@ -41704,7 +41744,7 @@
         <v>4450</v>
       </c>
     </row>
-    <row r="774" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A774" s="2" t="s">
         <v>4451</v>
       </c>
@@ -41732,7 +41772,7 @@
         <v>4456</v>
       </c>
     </row>
-    <row r="775" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A775" s="2" t="s">
         <v>4457</v>
       </c>
@@ -41764,7 +41804,7 @@
         <v>4458</v>
       </c>
     </row>
-    <row r="776" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A776" s="2" t="s">
         <v>4462</v>
       </c>
@@ -41794,7 +41834,7 @@
         <v>4467</v>
       </c>
     </row>
-    <row r="777" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A777" s="2" t="s">
         <v>4468</v>
       </c>
@@ -41820,7 +41860,7 @@
         <v>4473</v>
       </c>
     </row>
-    <row r="778" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A778" s="2" t="s">
         <v>4474</v>
       </c>
@@ -41850,7 +41890,7 @@
         <v>4479</v>
       </c>
     </row>
-    <row r="779" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A779" s="2" t="s">
         <v>4480</v>
       </c>
@@ -41880,7 +41920,7 @@
         <v>4484</v>
       </c>
     </row>
-    <row r="780" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A780" s="2" t="s">
         <v>4485</v>
       </c>
@@ -41908,7 +41948,7 @@
         <v>4490</v>
       </c>
     </row>
-    <row r="781" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A781" s="2" t="s">
         <v>4491</v>
       </c>
@@ -41936,7 +41976,7 @@
         <v>4496</v>
       </c>
     </row>
-    <row r="782" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A782" s="2" t="s">
         <v>4497</v>
       </c>
@@ -41960,7 +42000,7 @@
         <v>4502</v>
       </c>
     </row>
-    <row r="783" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A783" s="2" t="s">
         <v>4503</v>
       </c>
@@ -41988,7 +42028,7 @@
         <v>4508</v>
       </c>
     </row>
-    <row r="784" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A784" s="2" t="s">
         <v>4509</v>
       </c>
@@ -42014,7 +42054,7 @@
         <v>4514</v>
       </c>
     </row>
-    <row r="785" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A785" s="2" t="s">
         <v>4328</v>
       </c>
@@ -42042,7 +42082,7 @@
         <v>4518</v>
       </c>
     </row>
-    <row r="786" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A786" s="2" t="s">
         <v>4519</v>
       </c>
@@ -42068,7 +42108,7 @@
         <v>4524</v>
       </c>
     </row>
-    <row r="787" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A787" s="2" t="s">
         <v>4525</v>
       </c>
@@ -42096,7 +42136,7 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="788" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A788" s="2" t="s">
         <v>4531</v>
       </c>
@@ -42124,7 +42164,7 @@
         <v>4536</v>
       </c>
     </row>
-    <row r="789" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A789" s="2" t="s">
         <v>4537</v>
       </c>
@@ -42150,7 +42190,7 @@
         <v>4542</v>
       </c>
     </row>
-    <row r="790" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A790" s="2" t="s">
         <v>4543</v>
       </c>
@@ -42176,7 +42216,7 @@
         <v>4548</v>
       </c>
     </row>
-    <row r="791" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A791" s="2" t="s">
         <v>4549</v>
       </c>
@@ -42206,7 +42246,7 @@
         <v>4554</v>
       </c>
     </row>
-    <row r="792" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A792" s="2" t="s">
         <v>4555</v>
       </c>
@@ -42232,7 +42272,7 @@
         <v>4558</v>
       </c>
     </row>
-    <row r="793" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A793" s="2" t="s">
         <v>4559</v>
       </c>
@@ -42258,7 +42298,7 @@
         <v>4564</v>
       </c>
     </row>
-    <row r="794" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A794" s="2" t="s">
         <v>4565</v>
       </c>
@@ -42284,7 +42324,7 @@
         <v>4570</v>
       </c>
     </row>
-    <row r="795" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A795" s="2" t="s">
         <v>1097</v>
       </c>
@@ -42312,7 +42352,7 @@
         <v>4574</v>
       </c>
     </row>
-    <row r="796" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A796" s="2" t="s">
         <v>4575</v>
       </c>
@@ -42336,7 +42376,7 @@
         <v>4580</v>
       </c>
     </row>
-    <row r="797" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A797" s="2" t="s">
         <v>4581</v>
       </c>
@@ -42362,7 +42402,7 @@
         <v>4586</v>
       </c>
     </row>
-    <row r="798" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A798" s="2" t="s">
         <v>4587</v>
       </c>
@@ -42392,7 +42432,7 @@
         <v>4590</v>
       </c>
     </row>
-    <row r="799" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A799" s="2" t="s">
         <v>4591</v>
       </c>
@@ -42418,7 +42458,7 @@
         <v>4594</v>
       </c>
     </row>
-    <row r="800" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A800" s="2" t="s">
         <v>4595</v>
       </c>
@@ -42444,7 +42484,7 @@
         <v>4600</v>
       </c>
     </row>
-    <row r="801" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A801" s="2" t="s">
         <v>4601</v>
       </c>
@@ -42472,7 +42512,7 @@
         <v>4604</v>
       </c>
     </row>
-    <row r="802" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A802" s="2" t="s">
         <v>4605</v>
       </c>
@@ -42500,7 +42540,7 @@
         <v>4608</v>
       </c>
     </row>
-    <row r="803" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A803" s="2" t="s">
         <v>4609</v>
       </c>
@@ -42524,7 +42564,7 @@
         <v>4614</v>
       </c>
     </row>
-    <row r="804" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A804" s="2" t="s">
         <v>4615</v>
       </c>
@@ -42550,7 +42590,7 @@
         <v>4620</v>
       </c>
     </row>
-    <row r="805" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A805" s="2" t="s">
         <v>4621</v>
       </c>
@@ -42582,7 +42622,7 @@
         <v>4626</v>
       </c>
     </row>
-    <row r="806" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A806" s="2" t="s">
         <v>4627</v>
       </c>
@@ -42608,7 +42648,7 @@
         <v>4632</v>
       </c>
     </row>
-    <row r="807" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A807" s="2" t="s">
         <v>4633</v>
       </c>
@@ -42632,7 +42672,7 @@
         <v>4638</v>
       </c>
     </row>
-    <row r="808" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A808" s="2" t="s">
         <v>4639</v>
       </c>
@@ -42662,7 +42702,7 @@
         <v>4642</v>
       </c>
     </row>
-    <row r="809" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A809" s="2" t="s">
         <v>4643</v>
       </c>
@@ -42692,7 +42732,7 @@
         <v>4647</v>
       </c>
     </row>
-    <row r="810" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A810" s="2" t="s">
         <v>4648</v>
       </c>
@@ -42720,7 +42760,7 @@
         <v>4653</v>
       </c>
     </row>
-    <row r="811" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A811" s="2" t="s">
         <v>4648</v>
       </c>
@@ -42746,7 +42786,7 @@
         <v>4657</v>
       </c>
     </row>
-    <row r="812" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A812" s="2" t="s">
         <v>4658</v>
       </c>
@@ -42774,7 +42814,7 @@
         <v>4661</v>
       </c>
     </row>
-    <row r="813" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A813" s="2" t="s">
         <v>4662</v>
       </c>
@@ -42804,7 +42844,7 @@
         <v>4665</v>
       </c>
     </row>
-    <row r="814" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A814" s="2" t="s">
         <v>4666</v>
       </c>
@@ -42830,7 +42870,7 @@
         <v>4671</v>
       </c>
     </row>
-    <row r="815" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A815" s="2" t="s">
         <v>4666</v>
       </c>
@@ -42856,7 +42896,7 @@
         <v>4675</v>
       </c>
     </row>
-    <row r="816" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A816" s="2" t="s">
         <v>2742</v>
       </c>
@@ -42880,7 +42920,7 @@
         <v>4679</v>
       </c>
     </row>
-    <row r="817" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A817" s="2" t="s">
         <v>4680</v>
       </c>
@@ -42908,7 +42948,7 @@
         <v>4685</v>
       </c>
     </row>
-    <row r="818" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A818" s="2" t="s">
         <v>4686</v>
       </c>
@@ -42934,7 +42974,7 @@
         <v>4691</v>
       </c>
     </row>
-    <row r="819" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A819" s="2" t="s">
         <v>4692</v>
       </c>
@@ -42962,7 +43002,7 @@
         <v>4697</v>
       </c>
     </row>
-    <row r="820" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A820" s="2" t="s">
         <v>4698</v>
       </c>
@@ -42986,7 +43026,7 @@
         <v>4703</v>
       </c>
     </row>
-    <row r="821" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A821" s="2" t="s">
         <v>4704</v>
       </c>
@@ -43010,7 +43050,7 @@
         <v>4707</v>
       </c>
     </row>
-    <row r="822" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A822" s="2" t="s">
         <v>4708</v>
       </c>
@@ -43036,7 +43076,7 @@
         <v>4713</v>
       </c>
     </row>
-    <row r="823" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A823" s="2" t="s">
         <v>4714</v>
       </c>
@@ -43062,7 +43102,7 @@
         <v>4719</v>
       </c>
     </row>
-    <row r="824" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A824" s="2" t="s">
         <v>4720</v>
       </c>
@@ -43086,7 +43126,7 @@
         <v>4725</v>
       </c>
     </row>
-    <row r="825" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A825" s="2" t="s">
         <v>4726</v>
       </c>
@@ -43112,7 +43152,7 @@
         <v>4731</v>
       </c>
     </row>
-    <row r="826" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A826" s="2" t="s">
         <v>4274</v>
       </c>
@@ -43140,7 +43180,7 @@
         <v>4736</v>
       </c>
     </row>
-    <row r="827" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A827" s="2" t="s">
         <v>4737</v>
       </c>
@@ -43168,7 +43208,7 @@
         <v>4742</v>
       </c>
     </row>
-    <row r="828" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A828" s="2" t="s">
         <v>4743</v>
       </c>
@@ -43200,7 +43240,7 @@
         <v>4747</v>
       </c>
     </row>
-    <row r="829" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A829" s="2" t="s">
         <v>4748</v>
       </c>
@@ -43228,7 +43268,7 @@
         <v>4753</v>
       </c>
     </row>
-    <row r="830" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A830" s="2" t="s">
         <v>4754</v>
       </c>
@@ -43256,7 +43296,7 @@
         <v>4759</v>
       </c>
     </row>
-    <row r="831" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A831" s="2" t="s">
         <v>4760</v>
       </c>
@@ -43282,7 +43322,7 @@
         <v>4765</v>
       </c>
     </row>
-    <row r="832" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A832" s="2" t="s">
         <v>4766</v>
       </c>
@@ -43312,7 +43352,7 @@
         <v>4771</v>
       </c>
     </row>
-    <row r="833" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A833" s="2" t="s">
         <v>4772</v>
       </c>
@@ -43338,7 +43378,7 @@
         <v>4775</v>
       </c>
     </row>
-    <row r="834" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A834" s="2" t="s">
         <v>4776</v>
       </c>
@@ -43364,7 +43404,7 @@
         <v>4781</v>
       </c>
     </row>
-    <row r="835" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A835" s="2" t="s">
         <v>4782</v>
       </c>
@@ -43392,7 +43432,7 @@
         <v>4787</v>
       </c>
     </row>
-    <row r="836" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A836" s="2" t="s">
         <v>4788</v>
       </c>
@@ -43416,7 +43456,7 @@
         <v>4793</v>
       </c>
     </row>
-    <row r="837" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A837" s="2" t="s">
         <v>4794</v>
       </c>
@@ -43444,7 +43484,7 @@
         <v>4799</v>
       </c>
     </row>
-    <row r="838" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A838" s="2" t="s">
         <v>498</v>
       </c>
@@ -43474,7 +43514,7 @@
         <v>4804</v>
       </c>
     </row>
-    <row r="839" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A839" s="2" t="s">
         <v>4805</v>
       </c>
@@ -43502,7 +43542,7 @@
         <v>4810</v>
       </c>
     </row>
-    <row r="840" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A840" s="2" t="s">
         <v>4811</v>
       </c>
@@ -43530,7 +43570,7 @@
         <v>4816</v>
       </c>
     </row>
-    <row r="841" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A841" s="2" t="s">
         <v>4817</v>
       </c>
@@ -43558,7 +43598,7 @@
         <v>4822</v>
       </c>
     </row>
-    <row r="842" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A842" s="2" t="s">
         <v>4823</v>
       </c>
@@ -43586,7 +43626,7 @@
         <v>4828</v>
       </c>
     </row>
-    <row r="843" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A843" s="2" t="s">
         <v>4829</v>
       </c>
@@ -43614,7 +43654,7 @@
         <v>4834</v>
       </c>
     </row>
-    <row r="844" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A844" s="2" t="s">
         <v>4835</v>
       </c>
@@ -43642,7 +43682,7 @@
         <v>4840</v>
       </c>
     </row>
-    <row r="845" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A845" s="2" t="s">
         <v>4841</v>
       </c>
@@ -43668,7 +43708,7 @@
         <v>4844</v>
       </c>
     </row>
-    <row r="846" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A846" s="2" t="s">
         <v>4845</v>
       </c>
@@ -43692,7 +43732,7 @@
         <v>4850</v>
       </c>
     </row>
-    <row r="847" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A847" s="2" t="s">
         <v>4851</v>
       </c>
@@ -43716,7 +43756,7 @@
         <v>4855</v>
       </c>
     </row>
-    <row r="848" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A848" s="2" t="s">
         <v>4856</v>
       </c>
@@ -43744,7 +43784,7 @@
         <v>4860</v>
       </c>
     </row>
-    <row r="849" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A849" s="2" t="s">
         <v>4861</v>
       </c>
@@ -43772,7 +43812,7 @@
         <v>4866</v>
       </c>
     </row>
-    <row r="850" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A850" s="2" t="s">
         <v>4867</v>
       </c>
@@ -43796,7 +43836,7 @@
         <v>4872</v>
       </c>
     </row>
-    <row r="851" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A851" s="2" t="s">
         <v>4873</v>
       </c>
@@ -43824,7 +43864,7 @@
         <v>4878</v>
       </c>
     </row>
-    <row r="852" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A852" s="2" t="s">
         <v>4879</v>
       </c>
@@ -43852,7 +43892,7 @@
         <v>4884</v>
       </c>
     </row>
-    <row r="853" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A853" s="2" t="s">
         <v>4885</v>
       </c>
@@ -43880,7 +43920,7 @@
         <v>4890</v>
       </c>
     </row>
-    <row r="854" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A854" s="2" t="s">
         <v>4891</v>
       </c>
@@ -43910,7 +43950,7 @@
         <v>4896</v>
       </c>
     </row>
-    <row r="855" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A855" s="2" t="s">
         <v>4897</v>
       </c>
@@ -43934,7 +43974,7 @@
         <v>4902</v>
       </c>
     </row>
-    <row r="856" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A856" s="2" t="s">
         <v>4903</v>
       </c>
@@ -43958,7 +43998,7 @@
         <v>4908</v>
       </c>
     </row>
-    <row r="857" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A857" s="2" t="s">
         <v>4909</v>
       </c>
@@ -43986,7 +44026,7 @@
         <v>4914</v>
       </c>
     </row>
-    <row r="858" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A858" s="2" t="s">
         <v>4915</v>
       </c>
@@ -44010,7 +44050,7 @@
         <v>4920</v>
       </c>
     </row>
-    <row r="859" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A859" s="2" t="s">
         <v>4921</v>
       </c>
@@ -44040,7 +44080,7 @@
         <v>4924</v>
       </c>
     </row>
-    <row r="860" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A860" s="2" t="s">
         <v>4925</v>
       </c>
@@ -44066,7 +44106,7 @@
         <v>4930</v>
       </c>
     </row>
-    <row r="861" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A861" s="2" t="s">
         <v>4931</v>
       </c>
@@ -44094,7 +44134,7 @@
         <v>4936</v>
       </c>
     </row>
-    <row r="862" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A862" s="2" t="s">
         <v>4937</v>
       </c>
@@ -44124,7 +44164,7 @@
         <v>4940</v>
       </c>
     </row>
-    <row r="863" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A863" s="2" t="s">
         <v>4941</v>
       </c>
@@ -44154,7 +44194,7 @@
         <v>4944</v>
       </c>
     </row>
-    <row r="864" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A864" s="2" t="s">
         <v>4945</v>
       </c>
@@ -44182,7 +44222,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="865" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A865" s="2" t="s">
         <v>4951</v>
       </c>
@@ -44208,7 +44248,7 @@
         <v>4956</v>
       </c>
     </row>
-    <row r="866" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A866" s="2" t="s">
         <v>4957</v>
       </c>
@@ -44236,7 +44276,7 @@
         <v>4961</v>
       </c>
     </row>
-    <row r="867" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A867" s="2" t="s">
         <v>4962</v>
       </c>
@@ -44260,7 +44300,7 @@
         <v>4967</v>
       </c>
     </row>
-    <row r="868" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A868" s="2" t="s">
         <v>4968</v>
       </c>
@@ -44284,7 +44324,7 @@
         <v>4971</v>
       </c>
     </row>
-    <row r="869" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A869" s="2" t="s">
         <v>4972</v>
       </c>
@@ -44310,7 +44350,7 @@
         <v>4977</v>
       </c>
     </row>
-    <row r="870" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A870" s="2" t="s">
         <v>4978</v>
       </c>
@@ -44336,7 +44376,7 @@
         <v>4983</v>
       </c>
     </row>
-    <row r="871" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A871" s="2" t="s">
         <v>4984</v>
       </c>
@@ -44364,7 +44404,7 @@
         <v>4987</v>
       </c>
     </row>
-    <row r="872" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A872" s="2" t="s">
         <v>4988</v>
       </c>
@@ -44390,7 +44430,7 @@
         <v>4993</v>
       </c>
     </row>
-    <row r="873" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A873" s="2" t="s">
         <v>4994</v>
       </c>
@@ -44418,7 +44458,7 @@
         <v>4998</v>
       </c>
     </row>
-    <row r="874" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A874" s="2" t="s">
         <v>4999</v>
       </c>
@@ -44444,7 +44484,7 @@
         <v>5004</v>
       </c>
     </row>
-    <row r="875" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A875" s="2" t="s">
         <v>5005</v>
       </c>
@@ -44468,7 +44508,7 @@
         <v>5010</v>
       </c>
     </row>
-    <row r="876" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A876" s="2" t="s">
         <v>5011</v>
       </c>
@@ -44494,7 +44534,7 @@
         <v>5014</v>
       </c>
     </row>
-    <row r="877" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A877" s="2" t="s">
         <v>5015</v>
       </c>
@@ -44525,7 +44565,7 @@
         <v>6970</v>
       </c>
     </row>
-    <row r="878" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A878" s="2" t="s">
         <v>5021</v>
       </c>
@@ -44549,7 +44589,7 @@
         <v>5026</v>
       </c>
     </row>
-    <row r="879" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A879" s="2" t="s">
         <v>5027</v>
       </c>
@@ -44575,7 +44615,7 @@
         <v>5032</v>
       </c>
     </row>
-    <row r="880" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A880" s="2" t="s">
         <v>5033</v>
       </c>
@@ -44605,7 +44645,7 @@
         <v>5037</v>
       </c>
     </row>
-    <row r="881" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A881" s="2" t="s">
         <v>5038</v>
       </c>
@@ -44631,7 +44671,7 @@
         <v>5042</v>
       </c>
     </row>
-    <row r="882" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A882" s="2" t="s">
         <v>5043</v>
       </c>
@@ -44657,7 +44697,7 @@
         <v>5048</v>
       </c>
     </row>
-    <row r="883" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A883" s="2" t="s">
         <v>5049</v>
       </c>
@@ -44689,7 +44729,7 @@
         <v>5052</v>
       </c>
     </row>
-    <row r="884" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A884" s="2" t="s">
         <v>5053</v>
       </c>
@@ -44715,7 +44755,7 @@
         <v>5058</v>
       </c>
     </row>
-    <row r="885" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A885" s="2" t="s">
         <v>5059</v>
       </c>
@@ -44741,7 +44781,7 @@
         <v>5064</v>
       </c>
     </row>
-    <row r="886" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A886" s="2" t="s">
         <v>5065</v>
       </c>
@@ -44767,7 +44807,7 @@
         <v>5067</v>
       </c>
     </row>
-    <row r="887" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A887" s="2" t="s">
         <v>5068</v>
       </c>
@@ -44797,7 +44837,7 @@
         <v>5071</v>
       </c>
     </row>
-    <row r="888" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A888" s="2" t="s">
         <v>5072</v>
       </c>
@@ -44825,7 +44865,7 @@
         <v>5077</v>
       </c>
     </row>
-    <row r="889" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A889" s="2" t="s">
         <v>5072</v>
       </c>
@@ -44851,7 +44891,7 @@
         <v>5081</v>
       </c>
     </row>
-    <row r="890" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A890" s="2" t="s">
         <v>5082</v>
       </c>
@@ -44879,7 +44919,7 @@
         <v>5087</v>
       </c>
     </row>
-    <row r="891" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A891" s="2" t="s">
         <v>5088</v>
       </c>
@@ -44905,7 +44945,7 @@
         <v>5091</v>
       </c>
     </row>
-    <row r="892" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A892" s="2" t="s">
         <v>5092</v>
       </c>
@@ -44931,7 +44971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="893" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A893" s="2" t="s">
         <v>5095</v>
       </c>
@@ -44957,7 +44997,7 @@
         <v>5100</v>
       </c>
     </row>
-    <row r="894" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A894" s="2" t="s">
         <v>5101</v>
       </c>
@@ -44981,7 +45021,7 @@
         <v>5102</v>
       </c>
     </row>
-    <row r="895" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A895" s="2" t="s">
         <v>5105</v>
       </c>
@@ -45005,7 +45045,7 @@
         <v>5110</v>
       </c>
     </row>
-    <row r="896" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A896" s="2" t="s">
         <v>5111</v>
       </c>
@@ -45031,7 +45071,7 @@
         <v>5116</v>
       </c>
     </row>
-    <row r="897" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A897" s="2" t="s">
         <v>5117</v>
       </c>
@@ -45057,7 +45097,7 @@
         <v>5122</v>
       </c>
     </row>
-    <row r="898" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A898" s="2" t="s">
         <v>5123</v>
       </c>
@@ -45083,7 +45123,7 @@
         <v>5128</v>
       </c>
     </row>
-    <row r="899" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A899" s="2" t="s">
         <v>5129</v>
       </c>
@@ -45107,7 +45147,7 @@
         <v>5134</v>
       </c>
     </row>
-    <row r="900" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A900" s="2" t="s">
         <v>5135</v>
       </c>
@@ -45135,7 +45175,7 @@
         <v>5140</v>
       </c>
     </row>
-    <row r="901" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A901" s="2" t="s">
         <v>5141</v>
       </c>
@@ -45161,7 +45201,7 @@
         <v>5146</v>
       </c>
     </row>
-    <row r="902" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A902" s="2" t="s">
         <v>5147</v>
       </c>
@@ -45187,7 +45227,7 @@
         <v>5152</v>
       </c>
     </row>
-    <row r="903" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A903" s="2" t="s">
         <v>5153</v>
       </c>
@@ -45215,7 +45255,7 @@
         <v>5156</v>
       </c>
     </row>
-    <row r="904" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A904" s="2" t="s">
         <v>5157</v>
       </c>
@@ -45245,7 +45285,7 @@
         <v>5162</v>
       </c>
     </row>
-    <row r="905" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A905" s="2" t="s">
         <v>5163</v>
       </c>
@@ -45271,7 +45311,7 @@
         <v>5168</v>
       </c>
     </row>
-    <row r="906" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A906" s="2" t="s">
         <v>5169</v>
       </c>
@@ -45299,7 +45339,7 @@
         <v>5174</v>
       </c>
     </row>
-    <row r="907" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A907" s="2" t="s">
         <v>5175</v>
       </c>
@@ -45329,7 +45369,7 @@
         <v>5180</v>
       </c>
     </row>
-    <row r="908" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A908" s="2" t="s">
         <v>5181</v>
       </c>
@@ -45357,7 +45397,7 @@
         <v>5186</v>
       </c>
     </row>
-    <row r="909" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A909" s="2" t="s">
         <v>5187</v>
       </c>
@@ -45387,7 +45427,7 @@
         <v>5192</v>
       </c>
     </row>
-    <row r="910" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A910" s="2" t="s">
         <v>5193</v>
       </c>
@@ -45411,7 +45451,7 @@
         <v>5198</v>
       </c>
     </row>
-    <row r="911" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A911" s="2" t="s">
         <v>5199</v>
       </c>
@@ -45439,7 +45479,7 @@
         <v>5204</v>
       </c>
     </row>
-    <row r="912" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A912" s="2" t="s">
         <v>5205</v>
       </c>
@@ -45465,7 +45505,7 @@
         <v>5210</v>
       </c>
     </row>
-    <row r="913" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A913" s="2" t="s">
         <v>5211</v>
       </c>
@@ -45493,7 +45533,7 @@
         <v>5216</v>
       </c>
     </row>
-    <row r="914" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A914" s="2" t="s">
         <v>5217</v>
       </c>
@@ -45523,7 +45563,7 @@
         <v>5222</v>
       </c>
     </row>
-    <row r="915" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A915" s="2" t="s">
         <v>5223</v>
       </c>
@@ -45547,7 +45587,7 @@
         <v>5228</v>
       </c>
     </row>
-    <row r="916" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A916" s="2" t="s">
         <v>5229</v>
       </c>
@@ -45573,7 +45613,7 @@
         <v>5234</v>
       </c>
     </row>
-    <row r="917" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A917" s="2" t="s">
         <v>5235</v>
       </c>
@@ -45599,7 +45639,7 @@
         <v>5240</v>
       </c>
     </row>
-    <row r="918" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A918" s="2" t="s">
         <v>5241</v>
       </c>
@@ -45627,7 +45667,7 @@
         <v>5246</v>
       </c>
     </row>
-    <row r="919" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A919" s="2" t="s">
         <v>5247</v>
       </c>
@@ -45655,7 +45695,7 @@
         <v>5252</v>
       </c>
     </row>
-    <row r="920" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A920" s="2" t="s">
         <v>5253</v>
       </c>
@@ -45681,7 +45721,7 @@
         <v>5258</v>
       </c>
     </row>
-    <row r="921" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A921" s="2" t="s">
         <v>5259</v>
       </c>
@@ -45709,7 +45749,7 @@
         <v>5264</v>
       </c>
     </row>
-    <row r="922" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A922" s="2" t="s">
         <v>5265</v>
       </c>
@@ -45735,7 +45775,7 @@
         <v>5270</v>
       </c>
     </row>
-    <row r="923" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A923" s="2" t="s">
         <v>5271</v>
       </c>
@@ -45763,7 +45803,7 @@
         <v>5276</v>
       </c>
     </row>
-    <row r="924" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A924" s="2" t="s">
         <v>5277</v>
       </c>
@@ -45791,7 +45831,7 @@
         <v>5282</v>
       </c>
     </row>
-    <row r="925" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A925" s="2" t="s">
         <v>47</v>
       </c>
@@ -45817,7 +45857,7 @@
         <v>5286</v>
       </c>
     </row>
-    <row r="926" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A926" s="2" t="s">
         <v>5287</v>
       </c>
@@ -45843,7 +45883,7 @@
         <v>5292</v>
       </c>
     </row>
-    <row r="927" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A927" s="2" t="s">
         <v>5293</v>
       </c>
@@ -45871,7 +45911,7 @@
         <v>5298</v>
       </c>
     </row>
-    <row r="928" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A928" s="2" t="s">
         <v>5299</v>
       </c>
@@ -45899,7 +45939,7 @@
         <v>5304</v>
       </c>
     </row>
-    <row r="929" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A929" s="2" t="s">
         <v>5305</v>
       </c>
@@ -45925,7 +45965,7 @@
         <v>5310</v>
       </c>
     </row>
-    <row r="930" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A930" s="2" t="s">
         <v>5311</v>
       </c>
@@ -45953,7 +45993,7 @@
         <v>5316</v>
       </c>
     </row>
-    <row r="931" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A931" s="2" t="s">
         <v>5317</v>
       </c>
@@ -45979,7 +46019,7 @@
         <v>5320</v>
       </c>
     </row>
-    <row r="932" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A932" s="2" t="s">
         <v>5321</v>
       </c>
@@ -46003,7 +46043,7 @@
         <v>5326</v>
       </c>
     </row>
-    <row r="933" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A933" s="2" t="s">
         <v>5327</v>
       </c>
@@ -46029,7 +46069,7 @@
         <v>5332</v>
       </c>
     </row>
-    <row r="934" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A934" s="2" t="s">
         <v>5333</v>
       </c>
@@ -46053,7 +46093,7 @@
         <v>5338</v>
       </c>
     </row>
-    <row r="935" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A935" s="2" t="s">
         <v>5339</v>
       </c>
@@ -46079,7 +46119,7 @@
         <v>5344</v>
       </c>
     </row>
-    <row r="936" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A936" s="2" t="s">
         <v>5345</v>
       </c>
@@ -46105,7 +46145,7 @@
         <v>5350</v>
       </c>
     </row>
-    <row r="937" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A937" s="2" t="s">
         <v>5345</v>
       </c>
@@ -46133,7 +46173,7 @@
         <v>5354</v>
       </c>
     </row>
-    <row r="938" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A938" s="2" t="s">
         <v>5355</v>
       </c>
@@ -46159,7 +46199,7 @@
         <v>5360</v>
       </c>
     </row>
-    <row r="939" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A939" s="2" t="s">
         <v>5361</v>
       </c>
@@ -46185,7 +46225,7 @@
         <v>5366</v>
       </c>
     </row>
-    <row r="940" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A940" s="2" t="s">
         <v>5367</v>
       </c>
@@ -46215,7 +46255,7 @@
         <v>5372</v>
       </c>
     </row>
-    <row r="941" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A941" s="2" t="s">
         <v>5373</v>
       </c>
@@ -46241,7 +46281,7 @@
         <v>5378</v>
       </c>
     </row>
-    <row r="942" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A942" s="2" t="s">
         <v>5379</v>
       </c>
@@ -46269,7 +46309,7 @@
         <v>5384</v>
       </c>
     </row>
-    <row r="943" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A943" s="2" t="s">
         <v>5385</v>
       </c>
@@ -46295,7 +46335,7 @@
         <v>5390</v>
       </c>
     </row>
-    <row r="944" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A944" s="2" t="s">
         <v>5391</v>
       </c>
@@ -46325,7 +46365,7 @@
         <v>5396</v>
       </c>
     </row>
-    <row r="945" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A945" s="2" t="s">
         <v>5397</v>
       </c>
@@ -46351,7 +46391,7 @@
         <v>5402</v>
       </c>
     </row>
-    <row r="946" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A946" s="2" t="s">
         <v>5403</v>
       </c>
@@ -46379,7 +46419,7 @@
         <v>5408</v>
       </c>
     </row>
-    <row r="947" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A947" s="2" t="s">
         <v>5409</v>
       </c>
@@ -46403,7 +46443,7 @@
         <v>5414</v>
       </c>
     </row>
-    <row r="948" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A948" s="2" t="s">
         <v>5415</v>
       </c>
@@ -46431,7 +46471,7 @@
         <v>5420</v>
       </c>
     </row>
-    <row r="949" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A949" s="2" t="s">
         <v>5421</v>
       </c>
@@ -46459,7 +46499,7 @@
         <v>5426</v>
       </c>
     </row>
-    <row r="950" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A950" s="2" t="s">
         <v>5427</v>
       </c>
@@ -46487,7 +46527,7 @@
         <v>5431</v>
       </c>
     </row>
-    <row r="951" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A951" s="2" t="s">
         <v>5432</v>
       </c>
@@ -46515,7 +46555,7 @@
         <v>5437</v>
       </c>
     </row>
-    <row r="952" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A952" s="2" t="s">
         <v>5438</v>
       </c>
@@ -46543,7 +46583,7 @@
         <v>5443</v>
       </c>
     </row>
-    <row r="953" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A953" s="2" t="s">
         <v>5444</v>
       </c>
@@ -46573,7 +46613,7 @@
         <v>5449</v>
       </c>
     </row>
-    <row r="954" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A954" s="2" t="s">
         <v>5450</v>
       </c>
@@ -46599,7 +46639,7 @@
         <v>5455</v>
       </c>
     </row>
-    <row r="955" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A955" s="2" t="s">
         <v>5456</v>
       </c>
@@ -46627,7 +46667,7 @@
         <v>5461</v>
       </c>
     </row>
-    <row r="956" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A956" s="2" t="s">
         <v>5462</v>
       </c>
@@ -46653,7 +46693,7 @@
         <v>5467</v>
       </c>
     </row>
-    <row r="957" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A957" s="2" t="s">
         <v>5468</v>
       </c>
@@ -46679,7 +46719,7 @@
         <v>5473</v>
       </c>
     </row>
-    <row r="958" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A958" s="2" t="s">
         <v>5474</v>
       </c>
@@ -46705,7 +46745,7 @@
         <v>5479</v>
       </c>
     </row>
-    <row r="959" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A959" s="2" t="s">
         <v>5480</v>
       </c>
@@ -46731,7 +46771,7 @@
         <v>5485</v>
       </c>
     </row>
-    <row r="960" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A960" s="2" t="s">
         <v>5486</v>
       </c>
@@ -46757,7 +46797,7 @@
         <v>5490</v>
       </c>
     </row>
-    <row r="961" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A961" s="2" t="s">
         <v>5491</v>
       </c>
@@ -46783,7 +46823,7 @@
         <v>5496</v>
       </c>
     </row>
-    <row r="962" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A962" s="2" t="s">
         <v>5497</v>
       </c>
@@ -46813,7 +46853,7 @@
         <v>5501</v>
       </c>
     </row>
-    <row r="963" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A963" s="2" t="s">
         <v>5502</v>
       </c>
@@ -46839,7 +46879,7 @@
         <v>5506</v>
       </c>
     </row>
-    <row r="964" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A964" s="2" t="s">
         <v>5507</v>
       </c>
@@ -46863,7 +46903,7 @@
         <v>5508</v>
       </c>
     </row>
-    <row r="965" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A965" s="2" t="s">
         <v>5512</v>
       </c>
@@ -46893,7 +46933,7 @@
         <v>5515</v>
       </c>
     </row>
-    <row r="966" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A966" s="2" t="s">
         <v>5516</v>
       </c>
@@ -46921,7 +46961,7 @@
         <v>5521</v>
       </c>
     </row>
-    <row r="967" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A967" s="2" t="s">
         <v>5522</v>
       </c>
@@ -46947,7 +46987,7 @@
         <v>5527</v>
       </c>
     </row>
-    <row r="968" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A968" s="2" t="s">
         <v>5528</v>
       </c>
@@ -46971,7 +47011,7 @@
         <v>5533</v>
       </c>
     </row>
-    <row r="969" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A969" s="2" t="s">
         <v>5528</v>
       </c>
@@ -46997,7 +47037,7 @@
         <v>5537</v>
       </c>
     </row>
-    <row r="970" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A970" s="2" t="s">
         <v>5538</v>
       </c>
@@ -47023,7 +47063,7 @@
         <v>5543</v>
       </c>
     </row>
-    <row r="971" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A971" s="2" t="s">
         <v>5544</v>
       </c>
@@ -47051,7 +47091,7 @@
         <v>5549</v>
       </c>
     </row>
-    <row r="972" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A972" s="2" t="s">
         <v>5550</v>
       </c>
@@ -47079,7 +47119,7 @@
         <v>5554</v>
       </c>
     </row>
-    <row r="973" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A973" s="2" t="s">
         <v>5555</v>
       </c>
@@ -47107,7 +47147,7 @@
         <v>5560</v>
       </c>
     </row>
-    <row r="974" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A974" s="2" t="s">
         <v>5561</v>
       </c>
@@ -47135,7 +47175,7 @@
         <v>5566</v>
       </c>
     </row>
-    <row r="975" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A975" s="2" t="s">
         <v>5567</v>
       </c>
@@ -47159,7 +47199,7 @@
         <v>5568</v>
       </c>
     </row>
-    <row r="976" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A976" s="2" t="s">
         <v>5571</v>
       </c>
@@ -47187,7 +47227,7 @@
         <v>5576</v>
       </c>
     </row>
-    <row r="977" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A977" s="2" t="s">
         <v>5577</v>
       </c>
@@ -47211,7 +47251,7 @@
         <v>5582</v>
       </c>
     </row>
-    <row r="978" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A978" s="2" t="s">
         <v>5583</v>
       </c>
@@ -47239,7 +47279,7 @@
         <v>5588</v>
       </c>
     </row>
-    <row r="979" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A979" s="2" t="s">
         <v>5589</v>
       </c>
@@ -47263,7 +47303,7 @@
         <v>5594</v>
       </c>
     </row>
-    <row r="980" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A980" s="2" t="s">
         <v>5595</v>
       </c>
@@ -47293,7 +47333,7 @@
         <v>5599</v>
       </c>
     </row>
-    <row r="981" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A981" s="2" t="s">
         <v>5600</v>
       </c>
@@ -47317,7 +47357,7 @@
         <v>5605</v>
       </c>
     </row>
-    <row r="982" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A982" s="2" t="s">
         <v>5606</v>
       </c>
@@ -47345,7 +47385,7 @@
         <v>5611</v>
       </c>
     </row>
-    <row r="983" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A983" s="2" t="s">
         <v>5612</v>
       </c>
@@ -47373,7 +47413,7 @@
         <v>5617</v>
       </c>
     </row>
-    <row r="984" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A984" s="2" t="s">
         <v>5618</v>
       </c>
@@ -47401,7 +47441,7 @@
         <v>5623</v>
       </c>
     </row>
-    <row r="985" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A985" s="2" t="s">
         <v>5624</v>
       </c>
@@ -47431,7 +47471,7 @@
         <v>5629</v>
       </c>
     </row>
-    <row r="986" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A986" s="2" t="s">
         <v>5630</v>
       </c>
@@ -47459,7 +47499,7 @@
         <v>5634</v>
       </c>
     </row>
-    <row r="987" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A987" s="2" t="s">
         <v>5635</v>
       </c>
@@ -47487,7 +47527,7 @@
         <v>5639</v>
       </c>
     </row>
-    <row r="988" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A988" s="2" t="s">
         <v>5640</v>
       </c>
@@ -47515,7 +47555,7 @@
         <v>5645</v>
       </c>
     </row>
-    <row r="989" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A989" s="2" t="s">
         <v>5646</v>
       </c>
@@ -47545,7 +47585,7 @@
         <v>5647</v>
       </c>
     </row>
-    <row r="990" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A990" s="2" t="s">
         <v>5651</v>
       </c>
@@ -47575,7 +47615,7 @@
         <v>5654</v>
       </c>
     </row>
-    <row r="991" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A991" s="2" t="s">
         <v>5655</v>
       </c>
@@ -47603,7 +47643,7 @@
         <v>5660</v>
       </c>
     </row>
-    <row r="992" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A992" s="2" t="s">
         <v>5661</v>
       </c>
@@ -47629,7 +47669,7 @@
         <v>5666</v>
       </c>
     </row>
-    <row r="993" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A993" s="2" t="s">
         <v>5667</v>
       </c>
@@ -47657,7 +47697,7 @@
         <v>5672</v>
       </c>
     </row>
-    <row r="994" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A994" s="2" t="s">
         <v>5673</v>
       </c>
@@ -47685,7 +47725,7 @@
         <v>5676</v>
       </c>
     </row>
-    <row r="995" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A995" s="2" t="s">
         <v>5677</v>
       </c>
@@ -47713,7 +47753,7 @@
         <v>5682</v>
       </c>
     </row>
-    <row r="996" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A996" s="2" t="s">
         <v>5683</v>
       </c>
@@ -47737,7 +47777,7 @@
         <v>5688</v>
       </c>
     </row>
-    <row r="997" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A997" s="2" t="s">
         <v>5689</v>
       </c>
@@ -47767,7 +47807,7 @@
         <v>5694</v>
       </c>
     </row>
-    <row r="998" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A998" s="2" t="s">
         <v>5695</v>
       </c>
@@ -47795,7 +47835,7 @@
         <v>5698</v>
       </c>
     </row>
-    <row r="999" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A999" s="2" t="s">
         <v>5699</v>
       </c>
@@ -47821,7 +47861,7 @@
         <v>5704</v>
       </c>
     </row>
-    <row r="1000" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1000" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A1000" s="2" t="s">
         <v>5705</v>
       </c>
@@ -47847,7 +47887,7 @@
         <v>5710</v>
       </c>
     </row>
-    <row r="1001" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1001" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A1001" s="2" t="s">
         <v>5711</v>
       </c>
